--- a/CHZ/FSCHZ-18001(0105).xlsx
+++ b/CHZ/FSCHZ-18001(0105).xlsx
@@ -18,9 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PACKING LIST'!$A$16:$H$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">CONTRACT!$A$1:$H$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表1[#All]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">INVOICE!$A$2:$H$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">INVOICE!$A$1:$H$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'PACKING LIST'!$A$1:$H$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">RMB!$A$2:$H$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">RMB!$A$1:$H$60</definedName>
     <definedName name="品番">表1[品番]</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
   <si>
     <t>惠州住润汽车部品有限公司</t>
   </si>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PACKING  LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,11 +770,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USDINVOICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMBINVOICE</t>
+    <t>PACKING  LIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +778,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="16">
+  <numFmts count="14">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="\$#,##0.0000_);[Red]\(\$#,##0.0000\)"/>
@@ -794,15 +787,12 @@
     <numFmt numFmtId="178" formatCode="#,##0.00&quot;KGS&quot;"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="#,##0&quot;CTNS&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="###&quot;CTNS&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,##0_ "/>
-    <numFmt numFmtId="184" formatCode="&quot;¥&quot;#,##0.0000_);[Red]\(&quot;¥&quot;#,##0.0000\)"/>
-    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="[$-409]dd/mmm/yy;@"/>
-    <numFmt numFmtId="187" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="188" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="189" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="###&quot;CTNS&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0_ "/>
+    <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0.0000_);[Red]\(&quot;¥&quot;#,##0.0000\)"/>
+    <numFmt numFmtId="184" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="185" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="186" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1146,32 +1136,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="26" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1185,30 +1175,30 @@
     <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="26" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="26" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="26" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1220,53 +1210,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,22 +1265,22 @@
     <xf numFmtId="180" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -1313,7 +1303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1331,7 +1321,7 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1349,11 +1339,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="186" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1363,7 +1353,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1374,7 +1364,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1391,7 +1381,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1413,7 +1403,7 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1439,15 +1429,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1463,7 +1453,7 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1474,7 +1464,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1485,7 +1475,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1493,11 +1483,11 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1508,7 +1498,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="186" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1530,7 +1520,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1545,7 +1535,7 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1587,7 +1577,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1634,7 +1624,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1642,7 +1632,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -1677,17 +1667,17 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="25" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1703,10 +1693,10 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1747,46 +1737,46 @@
     <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1795,7 +1785,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1815,11 +1805,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1831,7 +1821,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1839,80 +1829,80 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -1924,7 +1914,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1935,10 +1925,10 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1948,16 +1938,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="187" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="188" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="26" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2044,7 +2034,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2068,7 +2058,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="188" formatCode="0.0000_);\(0.0000\)"/>
+      <numFmt numFmtId="186" formatCode="0.0000_);\(0.0000\)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2087,13 +2077,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2234,13 +2224,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2597,24 +2587,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="214" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="224" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="C1" s="221" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="221" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="222" t="s">
+      <c r="E1" s="233" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="233" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="213" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="266">
         <v>2.2499999999999999E-2</v>
@@ -2631,7 +2621,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="213" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="266">
         <v>1.89E-2</v>
@@ -2733,7 +2723,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="213" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="266">
         <v>2.1299999999999999E-2</v>
@@ -2767,7 +2757,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="213" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="266">
         <v>1.6799999999999999E-2</v>
@@ -2784,7 +2774,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="213" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="266">
         <v>2.9899999999999999E-2</v>
@@ -2801,7 +2791,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="213" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="266">
         <v>1.95E-2</v>
@@ -2818,7 +2808,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="213" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="266">
         <v>1.9099999999999999E-2</v>
@@ -2869,7 +2859,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="214" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="267">
         <v>7.0099999999999996E-2</v>
@@ -2886,7 +2876,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="215" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="268">
         <v>4.0800000000000003E-2</v>
@@ -2903,7 +2893,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="215" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="268">
         <v>5.5E-2</v>
@@ -2952,7 +2942,7 @@
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="214" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="267">
         <v>1.14E-2</v>
@@ -2969,7 +2959,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="214" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="267">
         <v>1.6799999999999999E-2</v>
@@ -3003,7 +2993,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="214" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="267">
         <v>2.8899999999999999E-2</v>
@@ -3037,7 +3027,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="217" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="269">
         <v>2.52E-2</v>
@@ -3071,7 +3061,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="269">
         <v>2.0799999999999999E-2</v>
@@ -3088,7 +3078,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="217" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="226"/>
       <c r="C30" s="225">
@@ -3137,7 +3127,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="219" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="270">
         <v>2.6700000000000002E-2</v>
@@ -3171,7 +3161,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="217" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="267">
         <v>1.9699999999999999E-2</v>
@@ -3188,7 +3178,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="219" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="269">
         <v>2.76E-2</v>
@@ -3205,7 +3195,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="219" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="269">
         <v>2.2599999999999999E-2</v>
@@ -3222,7 +3212,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="219" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="226"/>
       <c r="C38" s="225">
@@ -3252,7 +3242,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="214" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="267">
         <v>3.5400000000000001E-2</v>
@@ -3269,7 +3259,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="214" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="267">
         <v>3.44E-2</v>
@@ -3303,7 +3293,7 @@
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="269">
         <v>0.11840000000000001</v>
@@ -3320,7 +3310,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="217" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="269">
         <v>2.9899999999999999E-2</v>
@@ -3388,7 +3378,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="213" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="266">
         <v>6.5199999999999994E-2</v>
@@ -3497,9 +3487,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3513,99 +3505,106 @@
     <col min="11" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="96" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="304" t="s">
+    <row r="1" spans="1:14" ht="25.5">
+      <c r="A1" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:14" ht="26.25">
-      <c r="A4" s="299" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="300"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="301"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="85"/>
+    </row>
+    <row r="3" spans="1:14" ht="26.25">
+      <c r="A3" s="299" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="301"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="A5" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="G5" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="95"/>
+      <c r="K5" s="298" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="A6" s="96" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="95"/>
-      <c r="K6" s="298" t="s">
-        <v>144</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H6" s="97">
+        <v>43105</v>
+      </c>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="97">
-        <v>43105</v>
-      </c>
+      <c r="H7" s="98"/>
       <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="H8" s="98"/>
+      <c r="B8" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="B9" s="93" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="93"/>
       <c r="C9" s="99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="100"/>
       <c r="E9" s="101"/>
@@ -3616,21 +3615,19 @@
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="B10" s="93"/>
-      <c r="C10" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="100"/>
+      <c r="C10" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="89"/>
       <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="B11" s="93"/>
-      <c r="C11" s="103" t="s">
-        <v>44</v>
-      </c>
+      <c r="C11" s="103"/>
       <c r="D11" s="103"/>
       <c r="E11" s="104"/>
       <c r="F11" s="105"/>
@@ -3639,22 +3636,24 @@
       <c r="I11" s="90"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="B12" s="93"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="103"/>
+      <c r="B12" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="100" t="str">
+        <f>C8</f>
+        <v>惠州住润汽车部品有限公司</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="100"/>
       <c r="H12" s="89"/>
       <c r="I12" s="90"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="B13" s="93" t="s">
-        <v>7</v>
-      </c>
       <c r="C13" s="100" t="str">
         <f>C9</f>
-        <v>惠州住润汽车部品有限公司</v>
+        <v>广东省惠州市小金口镇九龙高科技工业园</v>
       </c>
       <c r="D13" s="100"/>
       <c r="E13" s="101"/>
@@ -3662,134 +3661,153 @@
       <c r="G13" s="100"/>
       <c r="H13" s="89"/>
       <c r="I13" s="90"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="C14" s="100" t="str">
+      <c r="C14" s="103" t="str">
         <f>C10</f>
-        <v>广东省惠州市小金口镇九龙高科技工业园</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="100"/>
+        <v>TEL: 86(752)2783855 FAX: 86(752)2783900  Attn:刘福友(小姐)</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="89"/>
       <c r="I14" s="90"/>
-      <c r="J14" s="106"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="C15" s="103" t="str">
-        <f>C11</f>
-        <v>TEL: 86(752)2783855 FAX: 86(752)2783900  Attn:刘福友(小姐)</v>
-      </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="89"/>
+      <c r="N14" s="248"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="I15" s="90"/>
-      <c r="N15" s="248"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="112" t="s">
+        <v>57</v>
+      </c>
       <c r="I16" s="90"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="114">
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="114">
         <f>'PACKING LIST'!C52</f>
         <v>69</v>
       </c>
-      <c r="C18" s="302" t="s">
+      <c r="C17" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="117"/>
       <c r="E18" s="115"/>
       <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120">
+        <f t="shared" ref="H18" si="0">E18*G18</f>
+        <v>0</v>
+      </c>
       <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="116" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="B19" s="117"/>
-      <c r="C19" s="113" t="s">
-        <v>8</v>
+      <c r="C19" s="121" t="s">
+        <v>99</v>
       </c>
       <c r="D19" s="117"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="119"/>
+      <c r="E19" s="122">
+        <v>20000</v>
+      </c>
+      <c r="F19" s="116" t="str">
+        <f t="shared" ref="F19:F42" si="1">IF(E19&gt;0,"PCS","")</f>
+        <v>PCS</v>
+      </c>
+      <c r="G19" s="119">
+        <f>IFERROR(VLOOKUP(C19,表1[],2,0),0)</f>
+        <v>2.2599999999999999E-2</v>
+      </c>
       <c r="H19" s="120">
-        <f t="shared" ref="H19" si="0">E19*G19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="90"/>
+        <f t="shared" ref="H19:H42" si="2">E19*G19</f>
+        <v>451.99999999999994</v>
+      </c>
+      <c r="I19" s="123">
+        <v>5000</v>
+      </c>
+      <c r="J19" s="124">
+        <v>0.65310000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="117"/>
       <c r="C20" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="117"/>
       <c r="E20" s="122">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="116" t="str">
-        <f t="shared" ref="F20:F43" si="1">IF(E20&gt;0,"PCS","")</f>
+        <f t="shared" si="1"/>
         <v>PCS</v>
       </c>
       <c r="G20" s="119">
         <f>IFERROR(VLOOKUP(C20,表1[],2,0),0)</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="H20" s="120">
-        <f t="shared" ref="H20:H43" si="2">E20*G20</f>
-        <v>451.99999999999994</v>
+        <f t="shared" si="2"/>
+        <v>367.5</v>
       </c>
       <c r="I20" s="123">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="124">
-        <v>0.65310000000000001</v>
+        <v>0.76739999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="117"/>
       <c r="C21" s="121" t="s">
         <v>101</v>
       </c>
+      <c r="D21" s="117"/>
       <c r="E21" s="122">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="F21" s="116" t="str">
         <f t="shared" si="1"/>
@@ -3797,30 +3815,29 @@
       </c>
       <c r="G21" s="119">
         <f>IFERROR(VLOOKUP(C21,表1[],2,0),0)</f>
-        <v>2.4500000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="H21" s="120">
         <f t="shared" si="2"/>
-        <v>367.5</v>
-      </c>
-      <c r="I21" s="123">
+        <v>95.1</v>
+      </c>
+      <c r="I21" s="128">
         <v>3000</v>
       </c>
       <c r="J21" s="124">
-        <v>0.76739999999999997</v>
+        <v>0.76290000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="117"/>
       <c r="C22" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="117"/>
+        <v>134</v>
+      </c>
       <c r="E22" s="122">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F22" s="116" t="str">
         <f t="shared" si="1"/>
@@ -3828,29 +3845,29 @@
       </c>
       <c r="G22" s="119">
         <f>IFERROR(VLOOKUP(C22,表1[],2,0),0)</f>
-        <v>3.1699999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="H22" s="120">
         <f t="shared" si="2"/>
-        <v>95.1</v>
-      </c>
-      <c r="I22" s="128">
-        <v>3000</v>
+        <v>299</v>
+      </c>
+      <c r="I22" s="123">
+        <v>10000</v>
       </c>
       <c r="J22" s="124">
-        <v>0.76290000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="117"/>
+        <v>137</v>
+      </c>
       <c r="C23" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="122">
-        <v>10000</v>
+        <v>103</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="35">
+        <v>20000</v>
       </c>
       <c r="F23" s="116" t="str">
         <f t="shared" si="1"/>
@@ -3858,29 +3875,29 @@
       </c>
       <c r="G23" s="119">
         <f>IFERROR(VLOOKUP(C23,表1[],2,0),0)</f>
-        <v>2.9899999999999999E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="H23" s="120">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>674</v>
       </c>
       <c r="I23" s="123">
         <v>10000</v>
       </c>
       <c r="J23" s="124">
-        <v>0.5</v>
+        <v>0.25019999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="121" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="35">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F24" s="116" t="str">
         <f t="shared" si="1"/>
@@ -3888,27 +3905,27 @@
       </c>
       <c r="G24" s="119">
         <f>IFERROR(VLOOKUP(C24,表1[],2,0),0)</f>
-        <v>3.3700000000000001E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="H24" s="120">
         <f t="shared" si="2"/>
-        <v>674</v>
-      </c>
-      <c r="I24" s="123">
+        <v>483</v>
+      </c>
+      <c r="I24" s="60">
         <v>10000</v>
       </c>
-      <c r="J24" s="124">
-        <v>0.25019999999999998</v>
+      <c r="J24" s="62">
+        <v>0.40229999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="35">
         <v>10000</v>
       </c>
@@ -3918,29 +3935,29 @@
       </c>
       <c r="G25" s="119">
         <f>IFERROR(VLOOKUP(C25,表1[],2,0),0)</f>
-        <v>4.8300000000000003E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="H25" s="120">
         <f t="shared" si="2"/>
-        <v>483</v>
+        <v>408.00000000000006</v>
       </c>
       <c r="I25" s="60">
         <v>10000</v>
       </c>
       <c r="J25" s="62">
-        <v>0.40229999999999999</v>
+        <v>0.34720000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="121" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="35">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F26" s="116" t="str">
         <f t="shared" si="1"/>
@@ -3948,28 +3965,29 @@
       </c>
       <c r="G26" s="119">
         <f>IFERROR(VLOOKUP(C26,表1[],2,0),0)</f>
-        <v>4.0800000000000003E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="H26" s="120">
         <f t="shared" si="2"/>
-        <v>408.00000000000006</v>
+        <v>648</v>
       </c>
       <c r="I26" s="60">
         <v>10000</v>
       </c>
       <c r="J26" s="62">
-        <v>0.34720000000000001</v>
+        <v>0.20949999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" s="116" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B27" s="117"/>
       <c r="C27" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="35">
+      <c r="D27" s="130"/>
+      <c r="E27" s="131">
         <v>40000</v>
       </c>
       <c r="F27" s="116" t="str">
@@ -3978,30 +3996,31 @@
       </c>
       <c r="G27" s="119">
         <f>IFERROR(VLOOKUP(C27,表1[],2,0),0)</f>
-        <v>1.6199999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H27" s="120">
         <f t="shared" si="2"/>
-        <v>648</v>
+        <v>428</v>
       </c>
       <c r="I27" s="60">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="62">
-        <v>0.20949999999999999</v>
-      </c>
+        <v>0.54</v>
+      </c>
+      <c r="K27" s="125"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="117"/>
       <c r="C28" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131">
-        <v>40000</v>
+        <v>135</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="122">
+        <v>20000</v>
       </c>
       <c r="F28" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4009,31 +4028,31 @@
       </c>
       <c r="G28" s="119">
         <f>IFERROR(VLOOKUP(C28,表1[],2,0),0)</f>
-        <v>1.0699999999999999E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="H28" s="120">
         <f t="shared" si="2"/>
-        <v>428</v>
-      </c>
-      <c r="I28" s="60">
-        <v>5000</v>
-      </c>
-      <c r="J28" s="62">
-        <v>0.54</v>
+        <v>228</v>
+      </c>
+      <c r="I28" s="123">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="124">
+        <v>0.46</v>
       </c>
       <c r="K28" s="125"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="117"/>
       <c r="C29" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="117"/>
-      <c r="E29" s="122">
-        <v>20000</v>
+        <v>108</v>
+      </c>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134">
+        <v>15000</v>
       </c>
       <c r="F29" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4041,31 +4060,31 @@
       </c>
       <c r="G29" s="119">
         <f>IFERROR(VLOOKUP(C29,表1[],2,0),0)</f>
-        <v>1.14E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="H29" s="120">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>378</v>
       </c>
       <c r="I29" s="123">
         <v>10000</v>
       </c>
       <c r="J29" s="124">
-        <v>0.46</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="K29" s="125"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="117"/>
       <c r="C30" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134">
-        <v>15000</v>
+      <c r="D30" s="117"/>
+      <c r="E30" s="122">
+        <v>20000</v>
       </c>
       <c r="F30" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4073,31 +4092,31 @@
       </c>
       <c r="G30" s="119">
         <f>IFERROR(VLOOKUP(C30,表1[],2,0),0)</f>
-        <v>2.52E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="H30" s="120">
         <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="I30" s="123">
+        <v>325.99999999999994</v>
+      </c>
+      <c r="I30" s="136">
         <v>10000</v>
       </c>
       <c r="J30" s="124">
-        <v>0.45050000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="125"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="117"/>
       <c r="C31" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="122">
-        <v>20000</v>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134">
+        <v>10000</v>
       </c>
       <c r="F31" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4105,31 +4124,31 @@
       </c>
       <c r="G31" s="119">
         <f>IFERROR(VLOOKUP(C31,表1[],2,0),0)</f>
-        <v>1.6299999999999999E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="H31" s="120">
         <f t="shared" si="2"/>
-        <v>325.99999999999994</v>
+        <v>208</v>
       </c>
       <c r="I31" s="136">
-        <v>10000</v>
-      </c>
-      <c r="J31" s="124">
-        <v>0.4</v>
+        <v>20000</v>
+      </c>
+      <c r="J31" s="137">
+        <v>0.21240000000000001</v>
       </c>
       <c r="K31" s="125"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="117"/>
       <c r="C32" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134">
-        <v>10000</v>
+      <c r="D32" s="117"/>
+      <c r="E32" s="122">
+        <v>60000</v>
       </c>
       <c r="F32" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4137,31 +4156,31 @@
       </c>
       <c r="G32" s="119">
         <f>IFERROR(VLOOKUP(C32,表1[],2,0),0)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="H32" s="120">
         <f t="shared" si="2"/>
-        <v>208</v>
-      </c>
-      <c r="I32" s="136">
-        <v>20000</v>
-      </c>
-      <c r="J32" s="137">
-        <v>0.21240000000000001</v>
+        <v>1338</v>
+      </c>
+      <c r="I32" s="123">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="124">
+        <v>0.38</v>
       </c>
       <c r="K32" s="125"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="117"/>
       <c r="C33" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="122">
-        <v>60000</v>
+      <c r="D33" s="133"/>
+      <c r="E33" s="134">
+        <v>40000</v>
       </c>
       <c r="F33" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4169,31 +4188,30 @@
       </c>
       <c r="G33" s="119">
         <f>IFERROR(VLOOKUP(C33,表1[],2,0),0)</f>
-        <v>2.23E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="H33" s="120">
         <f t="shared" si="2"/>
-        <v>1338</v>
+        <v>1220</v>
       </c>
       <c r="I33" s="123">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="124">
-        <v>0.38</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="K33" s="125"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="117"/>
+        <v>137</v>
+      </c>
       <c r="C34" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="134">
-        <v>40000</v>
+      <c r="D34" s="39"/>
+      <c r="E34" s="38">
+        <v>30000</v>
       </c>
       <c r="F34" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4201,30 +4219,31 @@
       </c>
       <c r="G34" s="119">
         <f>IFERROR(VLOOKUP(C34,表1[],2,0),0)</f>
-        <v>3.0499999999999999E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="H34" s="120">
         <f t="shared" si="2"/>
-        <v>1220</v>
+        <v>789</v>
       </c>
       <c r="I34" s="123">
         <v>5000</v>
       </c>
-      <c r="J34" s="124">
-        <v>0.28399999999999997</v>
+      <c r="J34" s="140">
+        <v>1.74</v>
       </c>
       <c r="K34" s="125"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="116" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B35" s="117"/>
       <c r="C35" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="38">
-        <v>30000</v>
+        <v>136</v>
+      </c>
+      <c r="D35" s="133"/>
+      <c r="E35" s="134">
+        <v>20000</v>
       </c>
       <c r="F35" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4232,31 +4251,30 @@
       </c>
       <c r="G35" s="119">
         <f>IFERROR(VLOOKUP(C35,表1[],2,0),0)</f>
-        <v>2.63E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="H35" s="120">
         <f t="shared" si="2"/>
-        <v>789</v>
-      </c>
-      <c r="I35" s="123">
+        <v>394</v>
+      </c>
+      <c r="I35" s="61">
         <v>5000</v>
       </c>
-      <c r="J35" s="140">
-        <v>1.74</v>
-      </c>
-      <c r="K35" s="125"/>
+      <c r="J35" s="63">
+        <v>0.3221</v>
+      </c>
+      <c r="K35" s="141"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="117"/>
+        <v>137</v>
+      </c>
       <c r="C36" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134">
-        <v>20000</v>
+        <v>114</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="43">
+        <v>10000</v>
       </c>
       <c r="F36" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4264,30 +4282,31 @@
       </c>
       <c r="G36" s="119">
         <f>IFERROR(VLOOKUP(C36,表1[],2,0),0)</f>
-        <v>1.9699999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="H36" s="120">
         <f t="shared" si="2"/>
-        <v>394</v>
-      </c>
-      <c r="I36" s="61">
-        <v>5000</v>
-      </c>
-      <c r="J36" s="63">
-        <v>0.3221</v>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="I36" s="136">
+        <v>10000</v>
+      </c>
+      <c r="J36" s="140">
+        <v>0.16</v>
       </c>
       <c r="K36" s="141"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="116" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B37" s="117"/>
       <c r="C37" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="43">
-        <v>10000</v>
+      <c r="D37" s="133"/>
+      <c r="E37" s="134">
+        <v>30000</v>
       </c>
       <c r="F37" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4295,31 +4314,31 @@
       </c>
       <c r="G37" s="119">
         <f>IFERROR(VLOOKUP(C37,表1[],2,0),0)</f>
-        <v>1.9800000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H37" s="120">
         <f t="shared" si="2"/>
-        <v>198.00000000000003</v>
-      </c>
-      <c r="I37" s="136">
+        <v>2850</v>
+      </c>
+      <c r="I37" s="61">
         <v>10000</v>
       </c>
-      <c r="J37" s="140">
-        <v>0.16</v>
+      <c r="J37" s="63">
+        <v>0.31969999999999998</v>
       </c>
       <c r="K37" s="141"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="117"/>
       <c r="C38" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="133"/>
-      <c r="E38" s="134">
-        <v>30000</v>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38">
+        <v>10000</v>
       </c>
       <c r="F38" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4327,31 +4346,31 @@
       </c>
       <c r="G38" s="119">
         <f>IFERROR(VLOOKUP(C38,表1[],2,0),0)</f>
-        <v>9.5000000000000001E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="H38" s="120">
         <f t="shared" si="2"/>
-        <v>2850</v>
-      </c>
-      <c r="I38" s="61">
+        <v>299</v>
+      </c>
+      <c r="I38" s="123">
         <v>10000</v>
       </c>
-      <c r="J38" s="63">
-        <v>0.31969999999999998</v>
+      <c r="J38" s="137">
+        <v>0.24</v>
       </c>
       <c r="K38" s="141"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="117"/>
+        <v>137</v>
+      </c>
+      <c r="B39" s="82"/>
       <c r="C39" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="38">
-        <v>10000</v>
+      <c r="D39" s="37"/>
+      <c r="E39" s="35">
+        <v>8000</v>
       </c>
       <c r="F39" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4359,31 +4378,31 @@
       </c>
       <c r="G39" s="119">
         <f>IFERROR(VLOOKUP(C39,表1[],2,0),0)</f>
-        <v>2.9899999999999999E-2</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="H39" s="120">
         <f t="shared" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="I39" s="123">
+        <v>947.2</v>
+      </c>
+      <c r="I39" s="61">
         <v>10000</v>
       </c>
-      <c r="J39" s="137">
-        <v>0.24</v>
+      <c r="J39" s="63">
+        <v>0.37159999999999999</v>
       </c>
       <c r="K39" s="141"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" s="82"/>
       <c r="C40" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="35">
-        <v>8000</v>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38">
+        <v>25000</v>
       </c>
       <c r="F40" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4391,23 +4410,23 @@
       </c>
       <c r="G40" s="119">
         <f>IFERROR(VLOOKUP(C40,表1[],2,0),0)</f>
-        <v>0.11840000000000001</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="H40" s="120">
         <f t="shared" si="2"/>
-        <v>947.2</v>
+        <v>1812.4999999999998</v>
       </c>
       <c r="I40" s="61">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="J40" s="63">
-        <v>0.37159999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K40" s="141"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="82"/>
       <c r="C41" s="121" t="s">
@@ -4415,7 +4434,7 @@
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="38">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4423,31 +4442,29 @@
       </c>
       <c r="G41" s="119">
         <f>IFERROR(VLOOKUP(C41,表1[],2,0),0)</f>
-        <v>7.2499999999999995E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="H41" s="120">
         <f t="shared" si="2"/>
-        <v>1812.4999999999998</v>
+        <v>416</v>
       </c>
       <c r="I41" s="61">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="J41" s="63">
-        <v>0.17</v>
+        <v>2.66</v>
       </c>
       <c r="K41" s="141"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
+    <row r="42" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="82"/>
+        <v>137</v>
+      </c>
       <c r="C42" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="38">
-        <v>20000</v>
+      <c r="E42" s="277">
+        <v>30000</v>
       </c>
       <c r="F42" s="116" t="str">
         <f t="shared" si="1"/>
@@ -4455,233 +4472,225 @@
       </c>
       <c r="G42" s="119">
         <f>IFERROR(VLOOKUP(C42,表1[],2,0),0)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="H42" s="120">
         <f t="shared" si="2"/>
-        <v>416</v>
+        <v>711</v>
       </c>
       <c r="I42" s="61">
         <v>3000</v>
       </c>
-      <c r="J42" s="63">
+      <c r="J42" s="234">
         <v>2.66</v>
       </c>
       <c r="K42" s="141"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:11" ht="15" customHeight="1" thickTop="1">
       <c r="A43" s="116" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B43" s="142"/>
       <c r="C43" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="277">
-        <v>30000</v>
+      <c r="D43" s="39"/>
+      <c r="E43" s="38">
+        <v>10000</v>
       </c>
       <c r="F43" s="116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F43:F50" si="3">IF(E43&gt;0,"PCS","")</f>
         <v>PCS</v>
       </c>
       <c r="G43" s="119">
         <f>IFERROR(VLOOKUP(C43,表1[],2,0),0)</f>
-        <v>2.3699999999999999E-2</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="H43" s="120">
-        <f t="shared" si="2"/>
-        <v>711</v>
+        <f t="shared" ref="H43:H50" si="4">E43*G43</f>
+        <v>651.99999999999989</v>
       </c>
       <c r="I43" s="61">
-        <v>3000</v>
-      </c>
-      <c r="J43" s="234">
-        <v>2.66</v>
+        <v>4000</v>
+      </c>
+      <c r="J43" s="63">
+        <v>2.37</v>
       </c>
       <c r="K43" s="141"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" thickTop="1">
-      <c r="A44" s="116" t="s">
+    <row r="44" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="114"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="280" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38">
+      <c r="E44" s="281">
+        <f>SUM(E19:E43)</f>
+        <v>526000</v>
+      </c>
+      <c r="F44" s="114" t="str">
+        <f t="shared" si="3"/>
+        <v>PCS</v>
+      </c>
+      <c r="G44" s="282">
+        <f>IFERROR(VLOOKUP(C44,表1[],2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="283">
+        <f>SUM(H19:H43)</f>
+        <v>16621.3</v>
+      </c>
+      <c r="I44" s="284">
+        <v>5000</v>
+      </c>
+      <c r="J44" s="285">
+        <v>1.74</v>
+      </c>
+      <c r="K44" s="286"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="133"/>
+      <c r="C45" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42">
         <v>10000</v>
       </c>
-      <c r="F44" s="116" t="str">
-        <f t="shared" ref="F44:F51" si="3">IF(E44&gt;0,"PCS","")</f>
-        <v>PCS</v>
-      </c>
-      <c r="G44" s="119">
-        <f>IFERROR(VLOOKUP(C44,表1[],2,0),0)</f>
-        <v>6.5199999999999994E-2</v>
-      </c>
-      <c r="H44" s="120">
-        <f t="shared" ref="H44:H51" si="4">E44*G44</f>
-        <v>651.99999999999989</v>
-      </c>
-      <c r="I44" s="61">
-        <v>4000</v>
-      </c>
-      <c r="J44" s="63">
-        <v>2.37</v>
-      </c>
-      <c r="K44" s="141"/>
-    </row>
-    <row r="45" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="114"/>
-      <c r="B45" s="278"/>
-      <c r="C45" s="279"/>
-      <c r="D45" s="280" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="281">
-        <f>SUM(E20:E44)</f>
-        <v>526000</v>
-      </c>
-      <c r="F45" s="114" t="str">
+      <c r="F45" s="116" t="str">
         <f t="shared" si="3"/>
         <v>PCS</v>
       </c>
-      <c r="G45" s="282">
+      <c r="G45" s="119">
         <f>IFERROR(VLOOKUP(C45,表1[],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="283">
-        <f>SUM(H20:H44)</f>
-        <v>16621.3</v>
-      </c>
-      <c r="I45" s="284">
-        <v>5000</v>
-      </c>
-      <c r="J45" s="285">
-        <v>1.74</v>
-      </c>
-      <c r="K45" s="286"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42">
-        <v>10000</v>
-      </c>
-      <c r="F46" s="116" t="str">
-        <f t="shared" si="3"/>
-        <v>PCS</v>
-      </c>
-      <c r="G46" s="119">
-        <f>IFERROR(VLOOKUP(C46,表1[],2,0),0)</f>
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="H46" s="120">
+      <c r="H45" s="120">
         <f t="shared" si="4"/>
         <v>225.99999999999997</v>
       </c>
-      <c r="I46" s="59">
+      <c r="I45" s="59">
         <v>20000</v>
       </c>
-      <c r="J46" s="64">
+      <c r="J45" s="64">
         <v>0.16</v>
       </c>
-      <c r="K46" s="141"/>
-    </row>
-    <row r="47" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="114"/>
+      <c r="K45" s="141"/>
+    </row>
+    <row r="46" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="114"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="280" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="192">
+        <f>E45</f>
+        <v>10000</v>
+      </c>
+      <c r="F46" s="114" t="str">
+        <f t="shared" si="3"/>
+        <v>PCS</v>
+      </c>
+      <c r="G46" s="282">
+        <f>IFERROR(VLOOKUP(C46,表1[],2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="283">
+        <f>H45</f>
+        <v>225.99999999999997</v>
+      </c>
+      <c r="I46" s="288">
+        <v>10000</v>
+      </c>
+      <c r="J46" s="289">
+        <v>0.24</v>
+      </c>
+      <c r="K46" s="286"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="116"/>
       <c r="B47" s="142"/>
-      <c r="C47" s="279"/>
-      <c r="D47" s="280" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="192">
-        <f>E46</f>
-        <v>10000</v>
-      </c>
-      <c r="F47" s="114" t="str">
+      <c r="C47" s="121"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="291"/>
+      <c r="F47" s="116" t="str">
         <f t="shared" si="3"/>
-        <v>PCS</v>
-      </c>
-      <c r="G47" s="282">
+        <v/>
+      </c>
+      <c r="G47" s="119">
         <f>IFERROR(VLOOKUP(C47,表1[],2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="283">
-        <f>H46</f>
-        <v>225.99999999999997</v>
-      </c>
-      <c r="I47" s="288">
-        <v>10000</v>
-      </c>
-      <c r="J47" s="289">
-        <v>0.24</v>
-      </c>
-      <c r="K47" s="286"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="116"/>
+      <c r="H47" s="120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="60"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="141"/>
+    </row>
+    <row r="48" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="114"/>
       <c r="B48" s="142"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="291"/>
-      <c r="F48" s="116" t="str">
+      <c r="C48" s="279"/>
+      <c r="D48" s="280"/>
+      <c r="E48" s="194">
+        <f>E47</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G48" s="119">
+      <c r="G48" s="282">
         <f>IFERROR(VLOOKUP(C48,表1[],2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="120">
+      <c r="H48" s="283">
+        <f>H47</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="290">
+        <v>10000</v>
+      </c>
+      <c r="J48" s="289">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="K48" s="286"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="116"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G49" s="119">
+        <f>IFERROR(VLOOKUP(C49,表1[],2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="120">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I48" s="60"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="141"/>
-    </row>
-    <row r="49" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="114"/>
-      <c r="B49" s="142"/>
-      <c r="C49" s="279"/>
-      <c r="D49" s="280"/>
-      <c r="E49" s="194">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="114" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G49" s="282">
-        <f>IFERROR(VLOOKUP(C49,表1[],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="283">
-        <f>H48</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="290">
-        <v>10000</v>
-      </c>
-      <c r="J49" s="289">
-        <v>0.31969999999999998</v>
-      </c>
-      <c r="K49" s="286"/>
-    </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1">
-      <c r="A50" s="116"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="141"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="135"/>
       <c r="B50" s="142"/>
       <c r="C50" s="121"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="194"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="116" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4694,62 +4703,53 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="63"/>
+      <c r="I50" s="61">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="63">
+        <v>0.31969999999999998</v>
+      </c>
       <c r="K50" s="141"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="135"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="116" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G51" s="119">
-        <f>IFERROR(VLOOKUP(C51,表1[],2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="120">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="61">
-        <v>10000</v>
-      </c>
-      <c r="J51" s="63">
-        <v>0.31969999999999998</v>
-      </c>
-      <c r="K51" s="141"/>
-    </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" thickTop="1">
-      <c r="A52" s="235" t="s">
+    <row r="51" spans="1:11" ht="15" customHeight="1" thickTop="1">
+      <c r="A51" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="235"/>
-      <c r="C52" s="236" t="s">
+      <c r="B51" s="235"/>
+      <c r="C51" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="235"/>
-      <c r="E52" s="237">
-        <f>E45+E47+E49</f>
+      <c r="D51" s="235"/>
+      <c r="E51" s="237">
+        <f>E44+E46+E48</f>
         <v>536000</v>
       </c>
-      <c r="F52" s="238" t="s">
+      <c r="F51" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="239"/>
-      <c r="H52" s="240">
-        <f>H45+H47+H49</f>
+      <c r="G51" s="239"/>
+      <c r="H51" s="240">
+        <f>H44+H46+H48</f>
         <v>16847.3</v>
       </c>
+      <c r="I51" s="90"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1">
       <c r="I52" s="90"/>
+      <c r="J52" s="144"/>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1">
+      <c r="A53" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="148"/>
       <c r="I53" s="90"/>
-      <c r="J53" s="144"/>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1">
       <c r="A54" s="145" t="s">
@@ -4759,124 +4759,122 @@
       <c r="C54" s="145"/>
       <c r="D54" s="145"/>
       <c r="E54" s="146"/>
-      <c r="F54" s="147"/>
+      <c r="F54" s="147" t="s">
+        <v>61</v>
+      </c>
       <c r="G54" s="145"/>
       <c r="H54" s="148"/>
-      <c r="I54" s="90"/>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1">
-      <c r="A55" s="145" t="s">
-        <v>61</v>
-      </c>
+      <c r="A55" s="145"/>
       <c r="B55" s="145"/>
       <c r="C55" s="145"/>
       <c r="D55" s="145"/>
       <c r="E55" s="146"/>
-      <c r="F55" s="147" t="s">
+      <c r="F55" s="184" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="145"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="90"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="145"/>
-      <c r="H55" s="148"/>
-    </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="A56" s="145"/>
       <c r="B56" s="145"/>
       <c r="C56" s="145"/>
       <c r="D56" s="145"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="184" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="145"/>
-      <c r="H56" s="149"/>
+      <c r="E56" s="150" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="151"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="153" t="s">
+        <v>64</v>
+      </c>
       <c r="I56" s="90"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="145" t="s">
-        <v>63</v>
-      </c>
+    <row r="57" spans="1:11" ht="15" customHeight="1">
+      <c r="A57" s="145"/>
       <c r="B57" s="145"/>
       <c r="C57" s="145"/>
       <c r="D57" s="145"/>
-      <c r="E57" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="151"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="153" t="s">
-        <v>65</v>
-      </c>
+      <c r="E57" s="146"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="156"/>
       <c r="I57" s="90"/>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="A58" s="145"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="156"/>
+      <c r="A58" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="189"/>
+      <c r="F58" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="190"/>
+      <c r="H58" s="190"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1">
+    <row r="59" spans="1:11" s="96" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="189"/>
       <c r="F59" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G59" s="190"/>
       <c r="H59" s="190"/>
-      <c r="I59" s="90"/>
-    </row>
-    <row r="60" spans="1:11" s="96" customFormat="1" ht="15" customHeight="1">
+      <c r="I59" s="157"/>
+      <c r="J59" s="158"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="189"/>
       <c r="F60" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G60" s="190"/>
       <c r="H60" s="190"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="158"/>
+      <c r="I60" s="90"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="A61" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="189"/>
-      <c r="F61" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="190"/>
-      <c r="H61" s="190"/>
+      <c r="A61" s="145"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="148"/>
       <c r="I61" s="90"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="A62" s="145"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="148"/>
       <c r="I62" s="90"/>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1">
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
       <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1">
@@ -4890,38 +4888,27 @@
       <c r="H64" s="82"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1">
-      <c r="A65" s="82"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
+    <row r="65" spans="9:9" ht="15" customHeight="1">
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1">
+    <row r="66" spans="9:9" ht="15" customHeight="1">
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1">
+    <row r="67" spans="9:9" ht="15" customHeight="1">
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1">
+    <row r="68" spans="9:9" ht="15" customHeight="1">
       <c r="I68" s="90"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1">
-      <c r="I69" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C50">
       <formula1>品番</formula1>
     </dataValidation>
   </dataValidations>
@@ -4930,7 +4917,7 @@
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H45:H49" formula="1"/>
+    <ignoredError sqref="H44:H48" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4941,8 +4928,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4983,7 +4970,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.25">
       <c r="A3" s="305" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B3" s="306"/>
       <c r="C3" s="306"/>
@@ -5017,7 +5004,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="94" t="str">
-        <f>INVOICE!H6</f>
+        <f>INVOICE!H5</f>
         <v>FSCHZ-18001E</v>
       </c>
       <c r="I5" s="170"/>
@@ -5035,7 +5022,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="97">
-        <f>INVOICE!H7</f>
+        <f>INVOICE!H6</f>
         <v>43105</v>
       </c>
       <c r="I6" s="170"/>
@@ -5137,19 +5124,19 @@
     </row>
     <row r="16" spans="1:14" s="82" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="108"/>
       <c r="C16" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="261"/>
       <c r="E16" s="176" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="108"/>
       <c r="G16" s="111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="177" t="s">
         <v>12</v>
@@ -5159,7 +5146,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="113" t="str">
-        <f>INVOICE!A18</f>
+        <f>INVOICE!A17</f>
         <v>Case No.1</v>
       </c>
       <c r="B17" s="178">
@@ -5191,11 +5178,11 @@
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="116" t="str">
-        <f>INVOICE!A20</f>
+        <f>INVOICE!A19</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C19" s="125" t="str">
-        <f>INVOICE!C20</f>
+        <f>INVOICE!C19</f>
         <v>7135-0078</v>
       </c>
       <c r="D19" s="258">
@@ -5203,11 +5190,11 @@
         <v>2</v>
       </c>
       <c r="E19" s="122">
-        <f>INVOICE!E20</f>
+        <f>INVOICE!E19</f>
         <v>20000</v>
       </c>
       <c r="F19" s="116" t="str">
-        <f>INVOICE!F20</f>
+        <f>INVOICE!F19</f>
         <v>PCS</v>
       </c>
       <c r="G19" s="160">
@@ -5219,12 +5206,12 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="116" t="str">
-        <f>INVOICE!A21</f>
+        <f>INVOICE!A20</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B20" s="121"/>
       <c r="C20" s="125" t="str">
-        <f>INVOICE!C21</f>
+        <f>INVOICE!C20</f>
         <v>7135-0082</v>
       </c>
       <c r="D20" s="258">
@@ -5232,11 +5219,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="122">
-        <f>INVOICE!E21</f>
+        <f>INVOICE!E20</f>
         <v>15000</v>
       </c>
       <c r="F20" s="116" t="str">
-        <f>INVOICE!F21</f>
+        <f>INVOICE!F20</f>
         <v>PCS</v>
       </c>
       <c r="G20" s="160">
@@ -5248,12 +5235,12 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="116" t="str">
-        <f>INVOICE!A22</f>
+        <f>INVOICE!A21</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B21" s="121"/>
       <c r="C21" s="125" t="str">
-        <f>INVOICE!C22</f>
+        <f>INVOICE!C21</f>
         <v>7135-0083</v>
       </c>
       <c r="D21" s="258">
@@ -5261,11 +5248,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="122">
-        <f>INVOICE!E22</f>
+        <f>INVOICE!E21</f>
         <v>3000</v>
       </c>
       <c r="F21" s="116" t="str">
-        <f>INVOICE!F22</f>
+        <f>INVOICE!F21</f>
         <v>PCS</v>
       </c>
       <c r="G21" s="160">
@@ -5279,12 +5266,12 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="116" t="str">
-        <f>INVOICE!A23</f>
+        <f>INVOICE!A22</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B22" s="121"/>
       <c r="C22" s="125" t="str">
-        <f>INVOICE!C23</f>
+        <f>INVOICE!C22</f>
         <v>7135-0183</v>
       </c>
       <c r="D22" s="258">
@@ -5292,11 +5279,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="122">
-        <f>INVOICE!E23</f>
+        <f>INVOICE!E22</f>
         <v>10000</v>
       </c>
       <c r="F22" s="116" t="str">
-        <f>INVOICE!F23</f>
+        <f>INVOICE!F22</f>
         <v>PCS</v>
       </c>
       <c r="G22" s="160">
@@ -5310,11 +5297,11 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="116" t="str">
-        <f>INVOICE!A24</f>
+        <f>INVOICE!A23</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C23" s="125" t="str">
-        <f>INVOICE!C24</f>
+        <f>INVOICE!C23</f>
         <v>7135-0239</v>
       </c>
       <c r="D23" s="258">
@@ -5322,11 +5309,11 @@
         <v>2</v>
       </c>
       <c r="E23" s="122">
-        <f>INVOICE!E24</f>
+        <f>INVOICE!E23</f>
         <v>20000</v>
       </c>
       <c r="F23" s="116" t="str">
-        <f>INVOICE!F24</f>
+        <f>INVOICE!F23</f>
         <v>PCS</v>
       </c>
       <c r="G23" s="160">
@@ -5340,11 +5327,11 @@
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="116" t="str">
-        <f>INVOICE!A25</f>
+        <f>INVOICE!A24</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C24" s="125" t="str">
-        <f>INVOICE!C25</f>
+        <f>INVOICE!C24</f>
         <v>7135-0242</v>
       </c>
       <c r="D24" s="258">
@@ -5352,11 +5339,11 @@
         <v>2</v>
       </c>
       <c r="E24" s="122">
-        <f>INVOICE!E25</f>
+        <f>INVOICE!E24</f>
         <v>10000</v>
       </c>
       <c r="F24" s="116" t="str">
-        <f>INVOICE!F25</f>
+        <f>INVOICE!F24</f>
         <v>PCS</v>
       </c>
       <c r="G24" s="160">
@@ -5368,11 +5355,11 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="116" t="str">
-        <f>INVOICE!A26</f>
+        <f>INVOICE!A25</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C25" s="125" t="str">
-        <f>INVOICE!C26</f>
+        <f>INVOICE!C25</f>
         <v>7135-0250</v>
       </c>
       <c r="D25" s="258">
@@ -5380,11 +5367,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="122">
-        <f>INVOICE!E26</f>
+        <f>INVOICE!E25</f>
         <v>10000</v>
       </c>
       <c r="F25" s="116" t="str">
-        <f>INVOICE!F26</f>
+        <f>INVOICE!F25</f>
         <v>PCS</v>
       </c>
       <c r="G25" s="160">
@@ -5396,11 +5383,11 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="116" t="str">
-        <f>INVOICE!A27</f>
+        <f>INVOICE!A26</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C26" s="125" t="str">
-        <f>INVOICE!C27</f>
+        <f>INVOICE!C26</f>
         <v>7135-0265</v>
       </c>
       <c r="D26" s="258">
@@ -5408,11 +5395,11 @@
         <v>4</v>
       </c>
       <c r="E26" s="122">
-        <f>INVOICE!E27</f>
+        <f>INVOICE!E26</f>
         <v>40000</v>
       </c>
       <c r="F26" s="116" t="str">
-        <f>INVOICE!F27</f>
+        <f>INVOICE!F26</f>
         <v>PCS</v>
       </c>
       <c r="G26" s="160">
@@ -5424,12 +5411,12 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" s="116" t="str">
-        <f>INVOICE!A28</f>
+        <f>INVOICE!A27</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B27" s="121"/>
       <c r="C27" s="125" t="str">
-        <f>INVOICE!C28</f>
+        <f>INVOICE!C27</f>
         <v>7135-0273</v>
       </c>
       <c r="D27" s="258">
@@ -5437,11 +5424,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="122">
-        <f>INVOICE!E28</f>
+        <f>INVOICE!E27</f>
         <v>40000</v>
       </c>
       <c r="F27" s="116" t="str">
-        <f>INVOICE!F28</f>
+        <f>INVOICE!F27</f>
         <v>PCS</v>
       </c>
       <c r="G27" s="160">
@@ -5453,12 +5440,12 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" s="116" t="str">
-        <f>INVOICE!A29</f>
+        <f>INVOICE!A28</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B28" s="121"/>
       <c r="C28" s="125" t="str">
-        <f>INVOICE!C29</f>
+        <f>INVOICE!C28</f>
         <v>7135-0278</v>
       </c>
       <c r="D28" s="258">
@@ -5466,11 +5453,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="122">
-        <f>INVOICE!E29</f>
+        <f>INVOICE!E28</f>
         <v>20000</v>
       </c>
       <c r="F28" s="116" t="str">
-        <f>INVOICE!F29</f>
+        <f>INVOICE!F28</f>
         <v>PCS</v>
       </c>
       <c r="G28" s="160">
@@ -5484,12 +5471,12 @@
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="116" t="str">
-        <f>INVOICE!A30</f>
+        <f>INVOICE!A29</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B29" s="132"/>
       <c r="C29" s="125" t="str">
-        <f>INVOICE!C30</f>
+        <f>INVOICE!C29</f>
         <v>7135-0324</v>
       </c>
       <c r="D29" s="258">
@@ -5497,11 +5484,11 @@
         <v>3</v>
       </c>
       <c r="E29" s="122">
-        <f>INVOICE!E30</f>
+        <f>INVOICE!E29</f>
         <v>15000</v>
       </c>
       <c r="F29" s="116" t="str">
-        <f>INVOICE!F30</f>
+        <f>INVOICE!F29</f>
         <v>PCS</v>
       </c>
       <c r="G29" s="160">
@@ -5515,12 +5502,12 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="116" t="str">
-        <f>INVOICE!A31</f>
+        <f>INVOICE!A30</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B30" s="138"/>
       <c r="C30" s="125" t="str">
-        <f>INVOICE!C31</f>
+        <f>INVOICE!C30</f>
         <v>7135-0326</v>
       </c>
       <c r="D30" s="258">
@@ -5528,11 +5515,11 @@
         <v>4</v>
       </c>
       <c r="E30" s="122">
-        <f>INVOICE!E31</f>
+        <f>INVOICE!E30</f>
         <v>20000</v>
       </c>
       <c r="F30" s="116" t="str">
-        <f>INVOICE!F31</f>
+        <f>INVOICE!F30</f>
         <v>PCS</v>
       </c>
       <c r="G30" s="160">
@@ -5546,12 +5533,12 @@
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" s="116" t="str">
-        <f>INVOICE!A32</f>
+        <f>INVOICE!A31</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B31" s="138"/>
       <c r="C31" s="125" t="str">
-        <f>INVOICE!C32</f>
+        <f>INVOICE!C31</f>
         <v>7135-0330</v>
       </c>
       <c r="D31" s="258">
@@ -5559,11 +5546,11 @@
         <v>1</v>
       </c>
       <c r="E31" s="122">
-        <f>INVOICE!E32</f>
+        <f>INVOICE!E31</f>
         <v>10000</v>
       </c>
       <c r="F31" s="116" t="str">
-        <f>INVOICE!F32</f>
+        <f>INVOICE!F31</f>
         <v>PCS</v>
       </c>
       <c r="G31" s="160">
@@ -5577,12 +5564,12 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="116" t="str">
-        <f>INVOICE!A33</f>
+        <f>INVOICE!A32</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B32" s="141"/>
       <c r="C32" s="125" t="str">
-        <f>INVOICE!C33</f>
+        <f>INVOICE!C32</f>
         <v>7135-0461</v>
       </c>
       <c r="D32" s="258">
@@ -5590,11 +5577,11 @@
         <v>6</v>
       </c>
       <c r="E32" s="122">
-        <f>INVOICE!E33</f>
+        <f>INVOICE!E32</f>
         <v>60000</v>
       </c>
       <c r="F32" s="116" t="str">
-        <f>INVOICE!F33</f>
+        <f>INVOICE!F32</f>
         <v>PCS</v>
       </c>
       <c r="G32" s="160">
@@ -5608,12 +5595,12 @@
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="116" t="str">
-        <f>INVOICE!A34</f>
+        <f>INVOICE!A33</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B33" s="141"/>
       <c r="C33" s="125" t="str">
-        <f>INVOICE!C34</f>
+        <f>INVOICE!C33</f>
         <v>7135-0462</v>
       </c>
       <c r="D33" s="258">
@@ -5621,11 +5608,11 @@
         <v>4</v>
       </c>
       <c r="E33" s="122">
-        <f>INVOICE!E34</f>
+        <f>INVOICE!E33</f>
         <v>40000</v>
       </c>
       <c r="F33" s="116" t="str">
-        <f>INVOICE!F34</f>
+        <f>INVOICE!F33</f>
         <v>PCS</v>
       </c>
       <c r="G33" s="160">
@@ -5639,12 +5626,12 @@
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="116" t="str">
-        <f>INVOICE!A35</f>
+        <f>INVOICE!A34</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B34" s="141"/>
       <c r="C34" s="125" t="str">
-        <f>INVOICE!C35</f>
+        <f>INVOICE!C34</f>
         <v>7135-0512</v>
       </c>
       <c r="D34" s="258">
@@ -5652,11 +5639,11 @@
         <v>3</v>
       </c>
       <c r="E34" s="122">
-        <f>INVOICE!E35</f>
+        <f>INVOICE!E34</f>
         <v>30000</v>
       </c>
       <c r="F34" s="116" t="str">
-        <f>INVOICE!F35</f>
+        <f>INVOICE!F34</f>
         <v>PCS</v>
       </c>
       <c r="G34" s="160">
@@ -5670,12 +5657,12 @@
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="116" t="str">
-        <f>INVOICE!A36</f>
+        <f>INVOICE!A35</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B35" s="132"/>
       <c r="C35" s="125" t="str">
-        <f>INVOICE!C36</f>
+        <f>INVOICE!C35</f>
         <v>7135-0536</v>
       </c>
       <c r="D35" s="258">
@@ -5683,11 +5670,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="122">
-        <f>INVOICE!E36</f>
+        <f>INVOICE!E35</f>
         <v>20000</v>
       </c>
       <c r="F35" s="116" t="str">
-        <f>INVOICE!F36</f>
+        <f>INVOICE!F35</f>
         <v>PCS</v>
       </c>
       <c r="G35" s="160">
@@ -5701,12 +5688,12 @@
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="116" t="str">
-        <f>INVOICE!A37</f>
+        <f>INVOICE!A36</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B36" s="138"/>
       <c r="C36" s="125" t="str">
-        <f>INVOICE!C37</f>
+        <f>INVOICE!C36</f>
         <v>7165-0430</v>
       </c>
       <c r="D36" s="258">
@@ -5714,11 +5701,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="122">
-        <f>INVOICE!E37</f>
+        <f>INVOICE!E36</f>
         <v>10000</v>
       </c>
       <c r="F36" s="116" t="str">
-        <f>INVOICE!F37</f>
+        <f>INVOICE!F36</f>
         <v>PCS</v>
       </c>
       <c r="G36" s="160">
@@ -5732,12 +5719,12 @@
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="116" t="str">
-        <f>INVOICE!A38</f>
+        <f>INVOICE!A37</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B37" s="138"/>
       <c r="C37" s="125" t="str">
-        <f>INVOICE!C38</f>
+        <f>INVOICE!C37</f>
         <v>7165-0667</v>
       </c>
       <c r="D37" s="258">
@@ -5745,11 +5732,11 @@
         <v>10</v>
       </c>
       <c r="E37" s="122">
-        <f>INVOICE!E38</f>
+        <f>INVOICE!E37</f>
         <v>30000</v>
       </c>
       <c r="F37" s="116" t="str">
-        <f>INVOICE!F38</f>
+        <f>INVOICE!F37</f>
         <v>PCS</v>
       </c>
       <c r="G37" s="160">
@@ -5763,12 +5750,12 @@
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" s="116" t="str">
-        <f>INVOICE!A39</f>
+        <f>INVOICE!A38</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B38" s="129"/>
       <c r="C38" s="125" t="str">
-        <f>INVOICE!C39</f>
+        <f>INVOICE!C38</f>
         <v>7165-0768</v>
       </c>
       <c r="D38" s="258">
@@ -5776,11 +5763,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="122">
-        <f>INVOICE!E39</f>
+        <f>INVOICE!E38</f>
         <v>10000</v>
       </c>
       <c r="F38" s="116" t="str">
-        <f>INVOICE!F39</f>
+        <f>INVOICE!F38</f>
         <v>PCS</v>
       </c>
       <c r="G38" s="160">
@@ -5794,12 +5781,12 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="116" t="str">
-        <f>INVOICE!A40</f>
+        <f>INVOICE!A39</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B39" s="129"/>
       <c r="C39" s="125" t="str">
-        <f>INVOICE!C40</f>
+        <f>INVOICE!C39</f>
         <v>7165-0813</v>
       </c>
       <c r="D39" s="258">
@@ -5807,11 +5794,11 @@
         <v>2</v>
       </c>
       <c r="E39" s="122">
-        <f>INVOICE!E40</f>
+        <f>INVOICE!E39</f>
         <v>8000</v>
       </c>
       <c r="F39" s="116" t="str">
-        <f>INVOICE!F40</f>
+        <f>INVOICE!F39</f>
         <v>PCS</v>
       </c>
       <c r="G39" s="160">
@@ -5825,12 +5812,12 @@
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="116" t="str">
-        <f>INVOICE!A41</f>
+        <f>INVOICE!A40</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B40" s="129"/>
       <c r="C40" s="125" t="str">
-        <f>INVOICE!C41</f>
+        <f>INVOICE!C40</f>
         <v>7165-1213</v>
       </c>
       <c r="D40" s="258">
@@ -5838,11 +5825,11 @@
         <v>5</v>
       </c>
       <c r="E40" s="122">
-        <f>INVOICE!E41</f>
+        <f>INVOICE!E40</f>
         <v>25000</v>
       </c>
       <c r="F40" s="116" t="str">
-        <f>INVOICE!F41</f>
+        <f>INVOICE!F40</f>
         <v>PCS</v>
       </c>
       <c r="G40" s="160">
@@ -5856,12 +5843,12 @@
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="116" t="str">
-        <f>INVOICE!A42</f>
+        <f>INVOICE!A41</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B41" s="129"/>
       <c r="C41" s="125" t="str">
-        <f>INVOICE!C42</f>
+        <f>INVOICE!C41</f>
         <v>7135-0579</v>
       </c>
       <c r="D41" s="258">
@@ -5869,11 +5856,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="122">
-        <f>INVOICE!E42</f>
+        <f>INVOICE!E41</f>
         <v>20000</v>
       </c>
       <c r="F41" s="116" t="str">
-        <f>INVOICE!F42</f>
+        <f>INVOICE!F41</f>
         <v>PCS</v>
       </c>
       <c r="G41" s="160">
@@ -5887,11 +5874,11 @@
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="117" t="str">
-        <f>INVOICE!A43</f>
+        <f>INVOICE!A42</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C42" s="121" t="str">
-        <f>INVOICE!C43</f>
+        <f>INVOICE!C42</f>
         <v>7135-0599</v>
       </c>
       <c r="D42" s="258">
@@ -5899,11 +5886,11 @@
         <v>3</v>
       </c>
       <c r="E42" s="122">
-        <f>INVOICE!E43</f>
+        <f>INVOICE!E42</f>
         <v>30000</v>
       </c>
       <c r="F42" s="117" t="str">
-        <f>INVOICE!F43</f>
+        <f>INVOICE!F42</f>
         <v>PCS</v>
       </c>
       <c r="G42" s="165">
@@ -5917,12 +5904,12 @@
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
       <c r="A43" s="116" t="str">
-        <f>INVOICE!A44</f>
+        <f>INVOICE!A43</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B43" s="129"/>
       <c r="C43" s="125" t="str">
-        <f>INVOICE!C44</f>
+        <f>INVOICE!C43</f>
         <v>7135-0325</v>
       </c>
       <c r="D43" s="258">
@@ -5930,11 +5917,11 @@
         <v>2</v>
       </c>
       <c r="E43" s="122">
-        <f>INVOICE!E44</f>
+        <f>INVOICE!E43</f>
         <v>10000</v>
       </c>
       <c r="F43" s="116" t="str">
-        <f>INVOICE!F44</f>
+        <f>INVOICE!F43</f>
         <v>PCS</v>
       </c>
       <c r="G43" s="160">
@@ -5948,12 +5935,12 @@
     </row>
     <row r="44" spans="1:11" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="116">
-        <f>INVOICE!A45</f>
+        <f>INVOICE!A44</f>
         <v>0</v>
       </c>
       <c r="B44" s="129"/>
       <c r="C44" s="125">
-        <f>INVOICE!C45</f>
+        <f>INVOICE!C44</f>
         <v>0</v>
       </c>
       <c r="D44" s="258">
@@ -5973,12 +5960,12 @@
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" s="116" t="str">
-        <f>INVOICE!A46</f>
+        <f>INVOICE!A45</f>
         <v>PO#:FFG-1801-E001</v>
       </c>
       <c r="B45" s="129"/>
       <c r="C45" s="125" t="str">
-        <f>INVOICE!C46</f>
+        <f>INVOICE!C45</f>
         <v>7135-0078</v>
       </c>
       <c r="D45" s="258">
@@ -5986,11 +5973,11 @@
         <v>1</v>
       </c>
       <c r="E45" s="122">
-        <f>INVOICE!E46</f>
+        <f>INVOICE!E45</f>
         <v>10000</v>
       </c>
       <c r="F45" s="116" t="str">
-        <f>INVOICE!F46</f>
+        <f>INVOICE!F45</f>
         <v>PCS</v>
       </c>
       <c r="G45" s="160">
@@ -6004,12 +5991,12 @@
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
       <c r="A46" s="116">
-        <f>INVOICE!A47</f>
+        <f>INVOICE!A46</f>
         <v>0</v>
       </c>
       <c r="B46" s="129"/>
       <c r="C46" s="125">
-        <f>INVOICE!C47</f>
+        <f>INVOICE!C46</f>
         <v>0</v>
       </c>
       <c r="D46" s="258">
@@ -6029,12 +6016,12 @@
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
       <c r="A47" s="116">
-        <f>INVOICE!A48</f>
+        <f>INVOICE!A47</f>
         <v>0</v>
       </c>
       <c r="B47" s="129"/>
       <c r="C47" s="125">
-        <f>INVOICE!C48</f>
+        <f>INVOICE!C47</f>
         <v>0</v>
       </c>
       <c r="D47" s="258">
@@ -6042,11 +6029,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="122">
-        <f>INVOICE!E49</f>
+        <f>INVOICE!E48</f>
         <v>0</v>
       </c>
       <c r="F47" s="116" t="str">
-        <f>INVOICE!F49</f>
+        <f>INVOICE!F48</f>
         <v/>
       </c>
       <c r="G47" s="160">
@@ -6060,12 +6047,12 @@
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
       <c r="A48" s="116">
-        <f>INVOICE!A51</f>
+        <f>INVOICE!A50</f>
         <v>0</v>
       </c>
       <c r="B48" s="129"/>
       <c r="C48" s="125">
-        <f>INVOICE!C49</f>
+        <f>INVOICE!C48</f>
         <v>0</v>
       </c>
       <c r="D48" s="258">
@@ -6073,11 +6060,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="122">
-        <f>INVOICE!E51</f>
+        <f>INVOICE!E50</f>
         <v>0</v>
       </c>
       <c r="F48" s="116" t="str">
-        <f>INVOICE!F51</f>
+        <f>INVOICE!F50</f>
         <v/>
       </c>
       <c r="G48" s="160">
@@ -6093,7 +6080,7 @@
       <c r="A49" s="116"/>
       <c r="B49" s="129"/>
       <c r="C49" s="125">
-        <f>INVOICE!C50</f>
+        <f>INVOICE!C49</f>
         <v>0</v>
       </c>
       <c r="D49" s="258">
@@ -6115,7 +6102,7 @@
       <c r="A50" s="135"/>
       <c r="B50" s="249"/>
       <c r="C50" s="125">
-        <f>INVOICE!C51</f>
+        <f>INVOICE!C50</f>
         <v>0</v>
       </c>
       <c r="D50" s="258">
@@ -6175,7 +6162,7 @@
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="A53" s="145" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="145"/>
       <c r="C53" s="145"/>
@@ -6188,14 +6175,14 @@
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1">
       <c r="A54" s="145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="145"/>
       <c r="C54" s="145"/>
       <c r="D54" s="264"/>
       <c r="E54" s="146"/>
       <c r="F54" s="147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54" s="145"/>
       <c r="H54" s="148"/>
@@ -6208,7 +6195,7 @@
       <c r="D55" s="264"/>
       <c r="E55" s="146"/>
       <c r="F55" s="184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="145"/>
       <c r="H55" s="149"/>
@@ -6216,18 +6203,18 @@
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A56" s="145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="145"/>
       <c r="C56" s="145"/>
       <c r="D56" s="264"/>
       <c r="E56" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" s="151"/>
       <c r="G56" s="152"/>
       <c r="H56" s="153" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" s="181"/>
     </row>
@@ -6244,14 +6231,14 @@
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="265"/>
       <c r="E58" s="189"/>
       <c r="F58" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G58" s="190"/>
       <c r="H58" s="190"/>
@@ -6259,14 +6246,14 @@
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="265"/>
       <c r="E59" s="189"/>
       <c r="F59" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" s="190"/>
       <c r="H59" s="190"/>
@@ -6274,14 +6261,14 @@
     </row>
     <row r="60" spans="1:11" s="117" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="265"/>
       <c r="E60" s="189"/>
       <c r="F60" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" s="190"/>
       <c r="H60" s="190"/>
@@ -6366,7 +6353,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -6409,7 +6396,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.25">
       <c r="A3" s="299" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="300"/>
       <c r="C3" s="300"/>
@@ -6441,7 +6428,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="94" t="str">
-        <f>INVOICE!H6</f>
+        <f>INVOICE!H5</f>
         <v>FSCHZ-18001E</v>
       </c>
       <c r="I5" s="95"/>
@@ -6556,28 +6543,28 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="108" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="108"/>
       <c r="C16" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="108"/>
       <c r="E16" s="109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="112" t="s">
         <v>57</v>
-      </c>
-      <c r="H16" s="112" t="s">
-        <v>58</v>
       </c>
       <c r="I16" s="90"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="114">
         <f>'PACKING LIST'!C52</f>
@@ -6613,25 +6600,25 @@
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="116" t="str">
-        <f>INVOICE!A20</f>
+        <f>INVOICE!A19</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B19" s="117"/>
       <c r="C19" s="125" t="str">
-        <f>INVOICE!C20</f>
+        <f>INVOICE!C19</f>
         <v>7135-0078</v>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="122">
-        <f>INVOICE!E20</f>
+        <f>INVOICE!E19</f>
         <v>20000</v>
       </c>
       <c r="F19" s="91" t="str">
-        <f>INVOICE!F20</f>
+        <f>INVOICE!F19</f>
         <v>PCS</v>
       </c>
       <c r="G19" s="126">
-        <f>INVOICE!G20</f>
+        <f>INVOICE!G19</f>
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="H19" s="127">
@@ -6642,25 +6629,25 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="116" t="str">
-        <f>INVOICE!A21</f>
+        <f>INVOICE!A20</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B20" s="117"/>
       <c r="C20" s="125" t="str">
-        <f>INVOICE!C21</f>
+        <f>INVOICE!C20</f>
         <v>7135-0082</v>
       </c>
       <c r="D20" s="117"/>
       <c r="E20" s="122">
-        <f>INVOICE!E21</f>
+        <f>INVOICE!E20</f>
         <v>15000</v>
       </c>
       <c r="F20" s="91" t="str">
-        <f>INVOICE!F21</f>
+        <f>INVOICE!F20</f>
         <v>PCS</v>
       </c>
       <c r="G20" s="126">
-        <f>INVOICE!G21</f>
+        <f>INVOICE!G20</f>
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="H20" s="127">
@@ -6671,25 +6658,25 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="116" t="str">
-        <f>INVOICE!A22</f>
+        <f>INVOICE!A21</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B21" s="117"/>
       <c r="C21" s="125" t="str">
-        <f>INVOICE!C22</f>
+        <f>INVOICE!C21</f>
         <v>7135-0083</v>
       </c>
       <c r="D21" s="117"/>
       <c r="E21" s="122">
-        <f>INVOICE!E22</f>
+        <f>INVOICE!E21</f>
         <v>3000</v>
       </c>
       <c r="F21" s="91" t="str">
-        <f>INVOICE!F22</f>
+        <f>INVOICE!F21</f>
         <v>PCS</v>
       </c>
       <c r="G21" s="126">
-        <f>INVOICE!G22</f>
+        <f>INVOICE!G21</f>
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="H21" s="127">
@@ -6700,25 +6687,25 @@
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="116" t="str">
-        <f>INVOICE!A23</f>
+        <f>INVOICE!A22</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B22" s="117"/>
       <c r="C22" s="125" t="str">
-        <f>INVOICE!C23</f>
+        <f>INVOICE!C22</f>
         <v>7135-0183</v>
       </c>
       <c r="D22" s="117"/>
       <c r="E22" s="122">
-        <f>INVOICE!E23</f>
+        <f>INVOICE!E22</f>
         <v>10000</v>
       </c>
       <c r="F22" s="91" t="str">
-        <f>INVOICE!F23</f>
+        <f>INVOICE!F22</f>
         <v>PCS</v>
       </c>
       <c r="G22" s="126">
-        <f>INVOICE!G23</f>
+        <f>INVOICE!G22</f>
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="H22" s="127">
@@ -6729,23 +6716,23 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="116" t="str">
-        <f>INVOICE!A24</f>
+        <f>INVOICE!A23</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C23" s="125" t="str">
-        <f>INVOICE!C24</f>
+        <f>INVOICE!C23</f>
         <v>7135-0239</v>
       </c>
       <c r="E23" s="122">
-        <f>INVOICE!E24</f>
+        <f>INVOICE!E23</f>
         <v>20000</v>
       </c>
       <c r="F23" s="91" t="str">
-        <f>INVOICE!F24</f>
+        <f>INVOICE!F23</f>
         <v>PCS</v>
       </c>
       <c r="G23" s="126">
-        <f>INVOICE!G24</f>
+        <f>INVOICE!G23</f>
         <v>3.3700000000000001E-2</v>
       </c>
       <c r="H23" s="127">
@@ -6756,23 +6743,23 @@
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="116" t="str">
-        <f>INVOICE!A25</f>
+        <f>INVOICE!A24</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C24" s="125" t="str">
-        <f>INVOICE!C25</f>
+        <f>INVOICE!C24</f>
         <v>7135-0242</v>
       </c>
       <c r="E24" s="122">
-        <f>INVOICE!E25</f>
+        <f>INVOICE!E24</f>
         <v>10000</v>
       </c>
       <c r="F24" s="91" t="str">
-        <f>INVOICE!F25</f>
+        <f>INVOICE!F24</f>
         <v>PCS</v>
       </c>
       <c r="G24" s="126">
-        <f>INVOICE!G25</f>
+        <f>INVOICE!G24</f>
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="H24" s="127">
@@ -6782,23 +6769,23 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="116" t="str">
-        <f>INVOICE!A26</f>
+        <f>INVOICE!A25</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C25" s="125" t="str">
-        <f>INVOICE!C26</f>
+        <f>INVOICE!C25</f>
         <v>7135-0250</v>
       </c>
       <c r="E25" s="122">
-        <f>INVOICE!E26</f>
+        <f>INVOICE!E25</f>
         <v>10000</v>
       </c>
       <c r="F25" s="91" t="str">
-        <f>INVOICE!F26</f>
+        <f>INVOICE!F25</f>
         <v>PCS</v>
       </c>
       <c r="G25" s="126">
-        <f>INVOICE!G26</f>
+        <f>INVOICE!G25</f>
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="H25" s="127">
@@ -6808,23 +6795,23 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="116" t="str">
-        <f>INVOICE!A27</f>
+        <f>INVOICE!A26</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="C26" s="125" t="str">
-        <f>INVOICE!C27</f>
+        <f>INVOICE!C26</f>
         <v>7135-0265</v>
       </c>
       <c r="E26" s="122">
-        <f>INVOICE!E27</f>
+        <f>INVOICE!E26</f>
         <v>40000</v>
       </c>
       <c r="F26" s="91" t="str">
-        <f>INVOICE!F27</f>
+        <f>INVOICE!F26</f>
         <v>PCS</v>
       </c>
       <c r="G26" s="126">
-        <f>INVOICE!G27</f>
+        <f>INVOICE!G26</f>
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="H26" s="127">
@@ -6834,25 +6821,25 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" s="116" t="str">
-        <f>INVOICE!A28</f>
+        <f>INVOICE!A27</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B27" s="117"/>
       <c r="C27" s="125" t="str">
-        <f>INVOICE!C28</f>
+        <f>INVOICE!C27</f>
         <v>7135-0273</v>
       </c>
       <c r="D27" s="117"/>
       <c r="E27" s="122">
-        <f>INVOICE!E28</f>
+        <f>INVOICE!E27</f>
         <v>40000</v>
       </c>
       <c r="F27" s="91" t="str">
-        <f>INVOICE!F28</f>
+        <f>INVOICE!F27</f>
         <v>PCS</v>
       </c>
       <c r="G27" s="126">
-        <f>INVOICE!G28</f>
+        <f>INVOICE!G27</f>
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H27" s="127">
@@ -6864,25 +6851,25 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" s="116" t="str">
-        <f>INVOICE!A29</f>
+        <f>INVOICE!A28</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B28" s="117"/>
       <c r="C28" s="125" t="str">
-        <f>INVOICE!C29</f>
+        <f>INVOICE!C28</f>
         <v>7135-0278</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="122">
-        <f>INVOICE!E29</f>
+        <f>INVOICE!E28</f>
         <v>20000</v>
       </c>
       <c r="F28" s="91" t="str">
-        <f>INVOICE!F29</f>
+        <f>INVOICE!F28</f>
         <v>PCS</v>
       </c>
       <c r="G28" s="126">
-        <f>INVOICE!G29</f>
+        <f>INVOICE!G28</f>
         <v>1.14E-2</v>
       </c>
       <c r="H28" s="127">
@@ -6895,25 +6882,25 @@
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" s="116" t="str">
-        <f>INVOICE!A30</f>
+        <f>INVOICE!A29</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B29" s="117"/>
       <c r="C29" s="125" t="str">
-        <f>INVOICE!C30</f>
+        <f>INVOICE!C29</f>
         <v>7135-0324</v>
       </c>
       <c r="D29" s="133"/>
       <c r="E29" s="122">
-        <f>INVOICE!E30</f>
+        <f>INVOICE!E29</f>
         <v>15000</v>
       </c>
       <c r="F29" s="91" t="str">
-        <f>INVOICE!F30</f>
+        <f>INVOICE!F29</f>
         <v>PCS</v>
       </c>
       <c r="G29" s="126">
-        <f>INVOICE!G30</f>
+        <f>INVOICE!G29</f>
         <v>2.52E-2</v>
       </c>
       <c r="H29" s="127">
@@ -6926,25 +6913,25 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="116" t="str">
-        <f>INVOICE!A31</f>
+        <f>INVOICE!A30</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B30" s="117"/>
       <c r="C30" s="125" t="str">
-        <f>INVOICE!C31</f>
+        <f>INVOICE!C30</f>
         <v>7135-0326</v>
       </c>
       <c r="D30" s="133"/>
       <c r="E30" s="122">
-        <f>INVOICE!E31</f>
+        <f>INVOICE!E30</f>
         <v>20000</v>
       </c>
       <c r="F30" s="91" t="str">
-        <f>INVOICE!F31</f>
+        <f>INVOICE!F30</f>
         <v>PCS</v>
       </c>
       <c r="G30" s="126">
-        <f>INVOICE!G31</f>
+        <f>INVOICE!G30</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="H30" s="127">
@@ -6957,25 +6944,25 @@
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" s="116" t="str">
-        <f>INVOICE!A32</f>
+        <f>INVOICE!A31</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B31" s="117"/>
       <c r="C31" s="125" t="str">
-        <f>INVOICE!C32</f>
+        <f>INVOICE!C31</f>
         <v>7135-0330</v>
       </c>
       <c r="D31" s="133"/>
       <c r="E31" s="122">
-        <f>INVOICE!E32</f>
+        <f>INVOICE!E31</f>
         <v>10000</v>
       </c>
       <c r="F31" s="91" t="str">
-        <f>INVOICE!F32</f>
+        <f>INVOICE!F31</f>
         <v>PCS</v>
       </c>
       <c r="G31" s="126">
-        <f>INVOICE!G32</f>
+        <f>INVOICE!G31</f>
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="H31" s="127">
@@ -6988,25 +6975,25 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="116" t="str">
-        <f>INVOICE!A33</f>
+        <f>INVOICE!A32</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B32" s="117"/>
       <c r="C32" s="125" t="str">
-        <f>INVOICE!C33</f>
+        <f>INVOICE!C32</f>
         <v>7135-0461</v>
       </c>
       <c r="D32" s="133"/>
       <c r="E32" s="122">
-        <f>INVOICE!E33</f>
+        <f>INVOICE!E32</f>
         <v>60000</v>
       </c>
       <c r="F32" s="91" t="str">
-        <f>INVOICE!F33</f>
+        <f>INVOICE!F32</f>
         <v>PCS</v>
       </c>
       <c r="G32" s="126">
-        <f>INVOICE!G33</f>
+        <f>INVOICE!G32</f>
         <v>2.23E-2</v>
       </c>
       <c r="H32" s="127">
@@ -7019,25 +7006,25 @@
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="116" t="str">
-        <f>INVOICE!A34</f>
+        <f>INVOICE!A33</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B33" s="117"/>
       <c r="C33" s="125" t="str">
-        <f>INVOICE!C34</f>
+        <f>INVOICE!C33</f>
         <v>7135-0462</v>
       </c>
       <c r="D33" s="133"/>
       <c r="E33" s="122">
-        <f>INVOICE!E34</f>
+        <f>INVOICE!E33</f>
         <v>40000</v>
       </c>
       <c r="F33" s="91" t="str">
-        <f>INVOICE!F34</f>
+        <f>INVOICE!F33</f>
         <v>PCS</v>
       </c>
       <c r="G33" s="126">
-        <f>INVOICE!G34</f>
+        <f>INVOICE!G33</f>
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="H33" s="127">
@@ -7050,25 +7037,25 @@
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="116" t="str">
-        <f>INVOICE!A35</f>
+        <f>INVOICE!A34</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B34" s="117"/>
       <c r="C34" s="125" t="str">
-        <f>INVOICE!C35</f>
+        <f>INVOICE!C34</f>
         <v>7135-0512</v>
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="122">
-        <f>INVOICE!E35</f>
+        <f>INVOICE!E34</f>
         <v>30000</v>
       </c>
       <c r="F34" s="91" t="str">
-        <f>INVOICE!F35</f>
+        <f>INVOICE!F34</f>
         <v>PCS</v>
       </c>
       <c r="G34" s="126">
-        <f>INVOICE!G35</f>
+        <f>INVOICE!G34</f>
         <v>2.63E-2</v>
       </c>
       <c r="H34" s="127">
@@ -7081,25 +7068,25 @@
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="116" t="str">
-        <f>INVOICE!A36</f>
+        <f>INVOICE!A35</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B35" s="117"/>
       <c r="C35" s="125" t="str">
-        <f>INVOICE!C36</f>
+        <f>INVOICE!C35</f>
         <v>7135-0536</v>
       </c>
       <c r="D35" s="133"/>
       <c r="E35" s="122">
-        <f>INVOICE!E36</f>
+        <f>INVOICE!E35</f>
         <v>20000</v>
       </c>
       <c r="F35" s="91" t="str">
-        <f>INVOICE!F36</f>
+        <f>INVOICE!F35</f>
         <v>PCS</v>
       </c>
       <c r="G35" s="126">
-        <f>INVOICE!G36</f>
+        <f>INVOICE!G35</f>
         <v>1.9699999999999999E-2</v>
       </c>
       <c r="H35" s="127">
@@ -7112,25 +7099,25 @@
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="116" t="str">
-        <f>INVOICE!A37</f>
+        <f>INVOICE!A36</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B36" s="117"/>
       <c r="C36" s="125" t="str">
-        <f>INVOICE!C37</f>
+        <f>INVOICE!C36</f>
         <v>7165-0430</v>
       </c>
       <c r="D36" s="139"/>
       <c r="E36" s="122">
-        <f>INVOICE!E37</f>
+        <f>INVOICE!E36</f>
         <v>10000</v>
       </c>
       <c r="F36" s="91" t="str">
-        <f>INVOICE!F37</f>
+        <f>INVOICE!F36</f>
         <v>PCS</v>
       </c>
       <c r="G36" s="126">
-        <f>INVOICE!G37</f>
+        <f>INVOICE!G36</f>
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="H36" s="127">
@@ -7143,25 +7130,25 @@
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="116" t="str">
-        <f>INVOICE!A38</f>
+        <f>INVOICE!A37</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B37" s="117"/>
       <c r="C37" s="125" t="str">
-        <f>INVOICE!C38</f>
+        <f>INVOICE!C37</f>
         <v>7165-0667</v>
       </c>
       <c r="D37" s="130"/>
       <c r="E37" s="122">
-        <f>INVOICE!E38</f>
+        <f>INVOICE!E37</f>
         <v>30000</v>
       </c>
       <c r="F37" s="91" t="str">
-        <f>INVOICE!F38</f>
+        <f>INVOICE!F37</f>
         <v>PCS</v>
       </c>
       <c r="G37" s="126">
-        <f>INVOICE!G38</f>
+        <f>INVOICE!G37</f>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H37" s="127">
@@ -7174,25 +7161,25 @@
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" s="116" t="str">
-        <f>INVOICE!A39</f>
+        <f>INVOICE!A38</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B38" s="133"/>
       <c r="C38" s="125" t="str">
-        <f>INVOICE!C39</f>
+        <f>INVOICE!C38</f>
         <v>7165-0768</v>
       </c>
       <c r="D38" s="133"/>
       <c r="E38" s="122">
-        <f>INVOICE!E39</f>
+        <f>INVOICE!E38</f>
         <v>10000</v>
       </c>
       <c r="F38" s="91" t="str">
-        <f>INVOICE!F39</f>
+        <f>INVOICE!F38</f>
         <v>PCS</v>
       </c>
       <c r="G38" s="126">
-        <f>INVOICE!G39</f>
+        <f>INVOICE!G38</f>
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="H38" s="127">
@@ -7205,25 +7192,25 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="116" t="str">
-        <f>INVOICE!A40</f>
+        <f>INVOICE!A39</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B39" s="142"/>
       <c r="C39" s="125" t="str">
-        <f>INVOICE!C40</f>
+        <f>INVOICE!C39</f>
         <v>7165-0813</v>
       </c>
       <c r="D39" s="143"/>
       <c r="E39" s="122">
-        <f>INVOICE!E40</f>
+        <f>INVOICE!E39</f>
         <v>8000</v>
       </c>
       <c r="F39" s="91" t="str">
-        <f>INVOICE!F40</f>
+        <f>INVOICE!F39</f>
         <v>PCS</v>
       </c>
       <c r="G39" s="126">
-        <f>INVOICE!G40</f>
+        <f>INVOICE!G39</f>
         <v>0.11840000000000001</v>
       </c>
       <c r="H39" s="127">
@@ -7236,25 +7223,25 @@
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="116" t="str">
-        <f>INVOICE!A41</f>
+        <f>INVOICE!A40</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B40" s="142"/>
       <c r="C40" s="125" t="str">
-        <f>INVOICE!C41</f>
+        <f>INVOICE!C40</f>
         <v>7165-1213</v>
       </c>
       <c r="D40" s="143"/>
       <c r="E40" s="122">
-        <f>INVOICE!E41</f>
+        <f>INVOICE!E40</f>
         <v>25000</v>
       </c>
       <c r="F40" s="91" t="str">
-        <f>INVOICE!F41</f>
+        <f>INVOICE!F40</f>
         <v>PCS</v>
       </c>
       <c r="G40" s="126">
-        <f>INVOICE!G41</f>
+        <f>INVOICE!G40</f>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="H40" s="127">
@@ -7267,25 +7254,25 @@
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" s="116" t="str">
-        <f>INVOICE!A42</f>
+        <f>INVOICE!A41</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B41" s="142"/>
       <c r="C41" s="125" t="str">
-        <f>INVOICE!C42</f>
+        <f>INVOICE!C41</f>
         <v>7135-0579</v>
       </c>
       <c r="D41" s="143"/>
       <c r="E41" s="122">
-        <f>INVOICE!E42</f>
+        <f>INVOICE!E41</f>
         <v>20000</v>
       </c>
       <c r="F41" s="91" t="str">
-        <f>INVOICE!F42</f>
+        <f>INVOICE!F41</f>
         <v>PCS</v>
       </c>
       <c r="G41" s="126">
-        <f>INVOICE!G42</f>
+        <f>INVOICE!G41</f>
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="H41" s="127">
@@ -7298,25 +7285,25 @@
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="116" t="str">
-        <f>INVOICE!A43</f>
+        <f>INVOICE!A42</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B42" s="142"/>
       <c r="C42" s="125" t="str">
-        <f>INVOICE!C43</f>
+        <f>INVOICE!C42</f>
         <v>7135-0599</v>
       </c>
       <c r="D42" s="143"/>
       <c r="E42" s="122">
-        <f>INVOICE!E43</f>
+        <f>INVOICE!E42</f>
         <v>30000</v>
       </c>
       <c r="F42" s="91" t="str">
-        <f>INVOICE!F43</f>
+        <f>INVOICE!F42</f>
         <v>PCS</v>
       </c>
       <c r="G42" s="126">
-        <f>INVOICE!G43</f>
+        <f>INVOICE!G42</f>
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="H42" s="127">
@@ -7329,25 +7316,25 @@
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
       <c r="A43" s="116" t="str">
-        <f>INVOICE!A44</f>
+        <f>INVOICE!A43</f>
         <v>PO#:FFG-1801-E002</v>
       </c>
       <c r="B43" s="142"/>
       <c r="C43" s="125" t="str">
-        <f>INVOICE!C44</f>
+        <f>INVOICE!C43</f>
         <v>7135-0325</v>
       </c>
       <c r="D43" s="143"/>
       <c r="E43" s="122">
-        <f>INVOICE!E44</f>
+        <f>INVOICE!E43</f>
         <v>10000</v>
       </c>
       <c r="F43" s="91" t="str">
-        <f>INVOICE!F44</f>
+        <f>INVOICE!F43</f>
         <v>PCS</v>
       </c>
       <c r="G43" s="126">
-        <f>INVOICE!G44</f>
+        <f>INVOICE!G43</f>
         <v>6.5199999999999994E-2</v>
       </c>
       <c r="H43" s="127">
@@ -7360,27 +7347,27 @@
     </row>
     <row r="44" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="114">
-        <f>INVOICE!A45</f>
+        <f>INVOICE!A44</f>
         <v>0</v>
       </c>
       <c r="B44" s="142"/>
       <c r="C44" s="295">
-        <f>INVOICE!C45</f>
+        <f>INVOICE!C44</f>
         <v>0</v>
       </c>
       <c r="D44" s="293" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="195">
-        <f>INVOICE!E45</f>
+        <f>INVOICE!E44</f>
         <v>526000</v>
       </c>
       <c r="F44" s="196" t="str">
-        <f>INVOICE!F45</f>
+        <f>INVOICE!F44</f>
         <v>PCS</v>
       </c>
       <c r="G44" s="197">
-        <f>INVOICE!G45</f>
+        <f>INVOICE!G44</f>
         <v>0</v>
       </c>
       <c r="H44" s="198">
@@ -7393,25 +7380,25 @@
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" s="116" t="str">
-        <f>INVOICE!A46</f>
+        <f>INVOICE!A45</f>
         <v>PO#:FFG-1801-E001</v>
       </c>
       <c r="B45" s="142"/>
       <c r="C45" s="125" t="str">
-        <f>INVOICE!C46</f>
+        <f>INVOICE!C45</f>
         <v>7135-0078</v>
       </c>
       <c r="D45" s="293"/>
       <c r="E45" s="122">
-        <f>INVOICE!E46</f>
+        <f>INVOICE!E45</f>
         <v>10000</v>
       </c>
       <c r="F45" s="91" t="str">
-        <f>INVOICE!F46</f>
+        <f>INVOICE!F45</f>
         <v>PCS</v>
       </c>
       <c r="G45" s="126">
-        <f>INVOICE!G46</f>
+        <f>INVOICE!G45</f>
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="H45" s="127">
@@ -7424,27 +7411,27 @@
     </row>
     <row r="46" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="114">
-        <f>INVOICE!A47</f>
+        <f>INVOICE!A46</f>
         <v>0</v>
       </c>
       <c r="B46" s="142"/>
       <c r="C46" s="295">
-        <f>INVOICE!C47</f>
+        <f>INVOICE!C46</f>
         <v>0</v>
       </c>
       <c r="D46" s="293" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="195">
-        <f>INVOICE!E47</f>
+        <f>INVOICE!E46</f>
         <v>10000</v>
       </c>
       <c r="F46" s="196" t="str">
-        <f>INVOICE!F47</f>
+        <f>INVOICE!F46</f>
         <v>PCS</v>
       </c>
       <c r="G46" s="197">
-        <f>INVOICE!G47</f>
+        <f>INVOICE!G46</f>
         <v>0</v>
       </c>
       <c r="H46" s="198">
@@ -7457,25 +7444,25 @@
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
       <c r="A47" s="116">
-        <f>INVOICE!A48</f>
+        <f>INVOICE!A47</f>
         <v>0</v>
       </c>
       <c r="B47" s="142"/>
       <c r="C47" s="125">
-        <f>INVOICE!C48</f>
+        <f>INVOICE!C47</f>
         <v>0</v>
       </c>
       <c r="D47" s="293"/>
       <c r="E47" s="122">
-        <f>INVOICE!E48</f>
+        <f>INVOICE!E47</f>
         <v>0</v>
       </c>
       <c r="F47" s="91" t="str">
-        <f>INVOICE!F48</f>
+        <f>INVOICE!F47</f>
         <v/>
       </c>
       <c r="G47" s="126">
-        <f>INVOICE!G48</f>
+        <f>INVOICE!G47</f>
         <v>0</v>
       </c>
       <c r="H47" s="297">
@@ -7488,25 +7475,25 @@
     </row>
     <row r="48" spans="1:11" s="287" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="114">
-        <f>INVOICE!A49</f>
+        <f>INVOICE!A48</f>
         <v>0</v>
       </c>
       <c r="B48" s="142"/>
       <c r="C48" s="295">
-        <f>INVOICE!C49</f>
+        <f>INVOICE!C48</f>
         <v>0</v>
       </c>
       <c r="D48" s="293"/>
       <c r="E48" s="195">
-        <f>INVOICE!E49</f>
+        <f>INVOICE!E48</f>
         <v>0</v>
       </c>
       <c r="F48" s="196" t="str">
-        <f>INVOICE!F49</f>
+        <f>INVOICE!F48</f>
         <v/>
       </c>
       <c r="G48" s="197">
-        <f>INVOICE!G49</f>
+        <f>INVOICE!G48</f>
         <v>0</v>
       </c>
       <c r="H48" s="198">
@@ -7521,20 +7508,20 @@
       <c r="A49" s="116"/>
       <c r="B49" s="142"/>
       <c r="C49" s="125">
-        <f>INVOICE!C50</f>
+        <f>INVOICE!C49</f>
         <v>0</v>
       </c>
       <c r="D49" s="293"/>
       <c r="E49" s="122">
-        <f>INVOICE!E50</f>
+        <f>INVOICE!E49</f>
         <v>0</v>
       </c>
       <c r="F49" s="91" t="str">
-        <f>INVOICE!F50</f>
+        <f>INVOICE!F49</f>
         <v/>
       </c>
       <c r="G49" s="126">
-        <f>INVOICE!G50</f>
+        <f>INVOICE!G49</f>
         <v>0</v>
       </c>
       <c r="H49" s="198"/>
@@ -7544,25 +7531,25 @@
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="135">
-        <f>INVOICE!A51</f>
+        <f>INVOICE!A50</f>
         <v>0</v>
       </c>
       <c r="B50" s="142"/>
       <c r="C50" s="125">
-        <f>INVOICE!C51</f>
+        <f>INVOICE!C50</f>
         <v>0</v>
       </c>
       <c r="D50" s="294"/>
       <c r="E50" s="122">
-        <f>INVOICE!E51</f>
+        <f>INVOICE!E50</f>
         <v>0</v>
       </c>
       <c r="F50" s="91" t="str">
-        <f>INVOICE!F51</f>
+        <f>INVOICE!F50</f>
         <v/>
       </c>
       <c r="G50" s="126">
-        <f>INVOICE!G51</f>
+        <f>INVOICE!G50</f>
         <v>0</v>
       </c>
       <c r="H50" s="292">
@@ -7602,7 +7589,7 @@
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1">
       <c r="A53" s="145" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="145"/>
       <c r="C53" s="145"/>
@@ -7615,14 +7602,14 @@
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1">
       <c r="A54" s="145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="145"/>
       <c r="C54" s="145"/>
       <c r="D54" s="145"/>
       <c r="E54" s="146"/>
       <c r="F54" s="147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54" s="145"/>
       <c r="H54" s="148"/>
@@ -7634,7 +7621,7 @@
       <c r="D55" s="145"/>
       <c r="E55" s="146"/>
       <c r="F55" s="184" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" s="145"/>
       <c r="H55" s="149"/>
@@ -7642,18 +7629,18 @@
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A56" s="145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="145"/>
       <c r="C56" s="145"/>
       <c r="D56" s="145"/>
       <c r="E56" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" s="151"/>
       <c r="G56" s="152"/>
       <c r="H56" s="153" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" s="90"/>
     </row>
@@ -7670,14 +7657,14 @@
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="189"/>
       <c r="F58" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G58" s="190"/>
       <c r="H58" s="190"/>
@@ -7685,14 +7672,14 @@
     </row>
     <row r="59" spans="1:11" s="96" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="189"/>
       <c r="F59" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" s="190"/>
       <c r="H59" s="190"/>
@@ -7701,14 +7688,14 @@
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="189"/>
       <c r="F60" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" s="190"/>
       <c r="H60" s="190"/>
@@ -7784,10 +7771,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -7802,98 +7789,105 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="314" t="s">
+    <row r="1" spans="1:14" ht="25.5">
+      <c r="A1" s="314" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="27">
-      <c r="A4" s="309" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="27">
+      <c r="A3" s="309" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="311"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="29"/>
+      <c r="G5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="56" t="str">
+        <f>REPLACE(INVOICE!H5,12,1,"D")</f>
+        <v>FSCHZ-18001D</v>
+      </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="56" t="str">
-        <f>REPLACE(INVOICE!H6,12,1,"D")</f>
-        <v>FSCHZ-18001D</v>
+        <v>49</v>
+      </c>
+      <c r="H6" s="57">
+        <f>INVOICE!H6</f>
+        <v>43105</v>
       </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="57">
-        <f>INVOICE!H7</f>
-        <v>43105</v>
-      </c>
+      <c r="H7" s="55"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="H8" s="55"/>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="247"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="23"/>
@@ -7905,20 +7899,18 @@
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="247"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="B11" s="6"/>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="32"/>
       <c r="E11" s="24"/>
       <c r="F11" s="204"/>
@@ -7927,22 +7919,24 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>C8</f>
+        <v>惠州住润汽车部品有限公司</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="247"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="11" t="str">
         <f>C9</f>
-        <v>惠州住润汽车部品有限公司</v>
+        <v>广东省惠州市小金口镇九龙高科技工业园</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="23"/>
@@ -7954,132 +7948,152 @@
     <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="C14" s="11" t="str">
         <f>C10</f>
-        <v>广东省惠州市小金口镇九龙高科技工业园</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="16"/>
+        <v>TEL: 86(752)2783855 FAX: 86(752)2783873  Attn:刘福友(小姐)</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="247"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="C15" s="11" t="str">
-        <f>C11</f>
-        <v>TEL: 86(752)2783855 FAX: 86(752)2783873  Attn:刘福友(小姐)</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="247"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="I15" s="9"/>
-      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="46" t="s">
+      <c r="A16" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="54" t="s">
+      <c r="F16" s="205"/>
+      <c r="G16" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="205"/>
-      <c r="G17" s="53" t="s">
+      <c r="H16" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="241"/>
-      <c r="J17" s="36"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="58">
+        <f>C52</f>
+        <v>65</v>
+      </c>
+      <c r="C17" s="312" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="313"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="58">
-        <f>C53</f>
-        <v>65</v>
-      </c>
-      <c r="C18" s="312" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="313"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="40"/>
+      <c r="A19" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="73" t="str">
+        <f>I19&amp;"D"</f>
+        <v>7135-0077D</v>
+      </c>
+      <c r="D19" s="74">
+        <f>IFERROR(E19/VLOOKUP(I19,表1[],3,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="75">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="207" t="str">
+        <f t="shared" ref="F19:F50" si="0">IF(E19&gt;0,"PCS","")</f>
+        <v>PCS</v>
+      </c>
+      <c r="G19" s="76">
+        <f>IFERROR(VLOOKUP(I19,表1[],5,0),"")</f>
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="H19" s="77">
+        <f t="shared" ref="H19:H50" si="1">IFERROR(E19*G19,0)</f>
+        <v>1337.0000000000002</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="73" t="str">
-        <f>I20&amp;"D"</f>
-        <v>7135-0077D</v>
+        <f t="shared" ref="C20:C37" si="2">I20&amp;"D"</f>
+        <v>7135-0078D</v>
       </c>
       <c r="D20" s="74">
         <f>IFERROR(E20/VLOOKUP(I20,表1[],3,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="75">
-        <v>10000</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="199">
+        <v>30000</v>
       </c>
       <c r="F20" s="207" t="str">
-        <f t="shared" ref="F20:F51" si="0">IF(E20&gt;0,"PCS","")</f>
+        <f t="shared" si="0"/>
         <v>PCS</v>
       </c>
       <c r="G20" s="76">
         <f>IFERROR(VLOOKUP(I20,表1[],5,0),"")</f>
-        <v>0.13370000000000001</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="H20" s="77">
-        <f t="shared" ref="H20:H51" si="1">IFERROR(E20*G20,0)</f>
-        <v>1337.0000000000002</v>
+        <f t="shared" si="1"/>
+        <v>4806</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="73" t="str">
-        <f t="shared" ref="C21:C38" si="2">I21&amp;"D"</f>
-        <v>7135-0078D</v>
+        <f t="shared" si="2"/>
+        <v>7135-0176D</v>
       </c>
       <c r="D21" s="74">
         <f>IFERROR(E21/VLOOKUP(I21,表1[],3,0),0)</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="199">
-        <v>30000</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="200">
+        <v>20000</v>
       </c>
       <c r="F21" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8087,31 +8101,31 @@
       </c>
       <c r="G21" s="76">
         <f>IFERROR(VLOOKUP(I21,表1[],5,0),"")</f>
-        <v>0.16020000000000001</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="H21" s="77">
         <f t="shared" si="1"/>
-        <v>4806</v>
+        <v>3366</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0176D</v>
+        <v>7135-0242D</v>
       </c>
       <c r="D22" s="74">
         <f>IFERROR(E22/VLOOKUP(I22,表1[],3,0),0)</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="200">
-        <v>20000</v>
+        <v>11</v>
+      </c>
+      <c r="E22" s="199">
+        <v>55000</v>
       </c>
       <c r="F22" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8119,31 +8133,31 @@
       </c>
       <c r="G22" s="76">
         <f>IFERROR(VLOOKUP(I22,表1[],5,0),"")</f>
-        <v>0.16830000000000001</v>
+        <v>0.3417</v>
       </c>
       <c r="H22" s="77">
         <f t="shared" si="1"/>
-        <v>3366</v>
+        <v>18793.5</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0242D</v>
+        <v>7135-0265D</v>
       </c>
       <c r="D23" s="74">
         <f>IFERROR(E23/VLOOKUP(I23,表1[],3,0),0)</f>
-        <v>11</v>
-      </c>
-      <c r="E23" s="199">
-        <v>55000</v>
+        <v>2</v>
+      </c>
+      <c r="E23" s="75">
+        <v>20000</v>
       </c>
       <c r="F23" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8151,24 +8165,24 @@
       </c>
       <c r="G23" s="76">
         <f>IFERROR(VLOOKUP(I23,表1[],5,0),"")</f>
-        <v>0.3417</v>
+        <v>0.11459999999999999</v>
       </c>
       <c r="H23" s="77">
         <f t="shared" si="1"/>
-        <v>18793.5</v>
+        <v>2292</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0265D</v>
+        <v>7135-0273D</v>
       </c>
       <c r="D24" s="74">
         <f>IFERROR(E24/VLOOKUP(I24,表1[],3,0),0)</f>
@@ -8183,11 +8197,11 @@
       </c>
       <c r="G24" s="76">
         <f>IFERROR(VLOOKUP(I24,表1[],5,0),"")</f>
-        <v>0.11459999999999999</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="H24" s="77">
         <f t="shared" si="1"/>
-        <v>2292</v>
+        <v>1514</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>107</v>
@@ -8196,17 +8210,17 @@
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0273D</v>
+        <v>7135-0278D</v>
       </c>
       <c r="D25" s="74">
         <f>IFERROR(E25/VLOOKUP(I25,表1[],3,0),0)</f>
-        <v>2</v>
-      </c>
-      <c r="E25" s="75">
+        <v>1</v>
+      </c>
+      <c r="E25" s="199">
         <v>20000</v>
       </c>
       <c r="F25" s="207" t="str">
@@ -8215,31 +8229,31 @@
       </c>
       <c r="G25" s="76">
         <f>IFERROR(VLOOKUP(I25,表1[],5,0),"")</f>
-        <v>7.5700000000000003E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="H25" s="77">
         <f t="shared" si="1"/>
-        <v>1514</v>
+        <v>1616</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0278D</v>
+        <v>7135-0324D</v>
       </c>
       <c r="D26" s="74">
         <f>IFERROR(E26/VLOOKUP(I26,表1[],3,0),0)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="199">
-        <v>20000</v>
+      <c r="E26" s="78">
+        <v>5000</v>
       </c>
       <c r="F26" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8247,30 +8261,30 @@
       </c>
       <c r="G26" s="76">
         <f>IFERROR(VLOOKUP(I26,表1[],5,0),"")</f>
-        <v>8.0799999999999997E-2</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="H26" s="77">
         <f t="shared" si="1"/>
-        <v>1616</v>
+        <v>892.5</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0324D</v>
+        <v>7135-0325D</v>
       </c>
       <c r="D27" s="74">
         <f>IFERROR(E27/VLOOKUP(I27,表1[],3,0),0)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="199">
         <v>5000</v>
       </c>
       <c r="F27" s="207" t="str">
@@ -8279,31 +8293,31 @@
       </c>
       <c r="G27" s="76">
         <f>IFERROR(VLOOKUP(I27,表1[],5,0),"")</f>
-        <v>0.17849999999999999</v>
+        <v>0.46139999999999998</v>
       </c>
       <c r="H27" s="77">
         <f t="shared" si="1"/>
-        <v>892.5</v>
+        <v>2307</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0325D</v>
+        <v>7135-0330D</v>
       </c>
       <c r="D28" s="74">
         <f>IFERROR(E28/VLOOKUP(I28,表1[],3,0),0)</f>
         <v>1</v>
       </c>
-      <c r="E28" s="199">
-        <v>5000</v>
+      <c r="E28" s="79">
+        <v>10000</v>
       </c>
       <c r="F28" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8311,31 +8325,31 @@
       </c>
       <c r="G28" s="76">
         <f>IFERROR(VLOOKUP(I28,表1[],5,0),"")</f>
-        <v>0.46139999999999998</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="H28" s="77">
         <f t="shared" si="1"/>
-        <v>2307</v>
+        <v>1470</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0330D</v>
+        <v>7135-0418D</v>
       </c>
       <c r="D29" s="74">
         <f>IFERROR(E29/VLOOKUP(I29,表1[],3,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="79">
-        <v>10000</v>
+        <v>16</v>
+      </c>
+      <c r="E29" s="199">
+        <v>160000</v>
       </c>
       <c r="F29" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8343,31 +8357,31 @@
       </c>
       <c r="G29" s="76">
         <f>IFERROR(VLOOKUP(I29,表1[],5,0),"")</f>
-        <v>0.14699999999999999</v>
+        <v>0.1077</v>
       </c>
       <c r="H29" s="77">
         <f t="shared" si="1"/>
-        <v>1470</v>
+        <v>17232</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0418D</v>
+        <v>7135-0461D</v>
       </c>
       <c r="D30" s="74">
         <f>IFERROR(E30/VLOOKUP(I30,表1[],3,0),0)</f>
-        <v>16</v>
-      </c>
-      <c r="E30" s="199">
-        <v>160000</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="75">
+        <v>10000</v>
       </c>
       <c r="F30" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8375,30 +8389,30 @@
       </c>
       <c r="G30" s="76">
         <f>IFERROR(VLOOKUP(I30,表1[],5,0),"")</f>
-        <v>0.1077</v>
+        <v>0.158</v>
       </c>
       <c r="H30" s="77">
         <f t="shared" si="1"/>
-        <v>17232</v>
+        <v>1580</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0461D</v>
+        <v>7135-0462D</v>
       </c>
       <c r="D31" s="74">
         <f>IFERROR(E31/VLOOKUP(I31,表1[],3,0),0)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="199">
         <v>10000</v>
       </c>
       <c r="F31" s="207" t="str">
@@ -8407,24 +8421,23 @@
       </c>
       <c r="G31" s="76">
         <f>IFERROR(VLOOKUP(I31,表1[],5,0),"")</f>
-        <v>0.158</v>
+        <v>0.216</v>
       </c>
       <c r="H31" s="77">
         <f t="shared" si="1"/>
-        <v>1580</v>
+        <v>2160</v>
       </c>
       <c r="I31" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0462D</v>
+        <v>7135-0512D</v>
       </c>
       <c r="D32" s="74">
         <f>IFERROR(E32/VLOOKUP(I32,表1[],3,0),0)</f>
@@ -8439,11 +8452,11 @@
       </c>
       <c r="G32" s="76">
         <f>IFERROR(VLOOKUP(I32,表1[],5,0),"")</f>
-        <v>0.216</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="H32" s="77">
         <f t="shared" si="1"/>
-        <v>2160</v>
+        <v>1859</v>
       </c>
       <c r="I32" s="40" t="s">
         <v>113</v>
@@ -8451,80 +8464,80 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0512D</v>
+        <v>7135-0736D</v>
       </c>
       <c r="D33" s="74">
         <f>IFERROR(E33/VLOOKUP(I33,表1[],3,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="199">
-        <v>10000</v>
-      </c>
-      <c r="F33" s="207" t="str">
+        <v>2</v>
+      </c>
+      <c r="E33" s="274">
+        <v>20000</v>
+      </c>
+      <c r="F33" s="275" t="str">
         <f t="shared" si="0"/>
         <v>PCS</v>
       </c>
       <c r="G33" s="76">
         <f>IFERROR(VLOOKUP(I33,表1[],5,0),"")</f>
-        <v>0.18590000000000001</v>
-      </c>
-      <c r="H33" s="77">
+        <v>0.2515</v>
+      </c>
+      <c r="H33" s="276">
         <f t="shared" si="1"/>
-        <v>1859</v>
+        <v>5030</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7135-0736D</v>
+        <v>7165-0430D</v>
       </c>
       <c r="D34" s="74">
         <f>IFERROR(E34/VLOOKUP(I34,表1[],3,0),0)</f>
-        <v>2</v>
-      </c>
-      <c r="E34" s="274">
-        <v>20000</v>
-      </c>
-      <c r="F34" s="275" t="str">
+        <v>1</v>
+      </c>
+      <c r="E34" s="75">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="207" t="str">
         <f t="shared" si="0"/>
         <v>PCS</v>
       </c>
       <c r="G34" s="76">
         <f>IFERROR(VLOOKUP(I34,表1[],5,0),"")</f>
-        <v>0.2515</v>
-      </c>
-      <c r="H34" s="276">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="H34" s="77">
         <f t="shared" si="1"/>
-        <v>5030</v>
+        <v>1403</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7165-0430D</v>
+        <v>7165-0667D</v>
       </c>
       <c r="D35" s="74">
         <f>IFERROR(E35/VLOOKUP(I35,表1[],3,0),0)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" s="75">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="F35" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8532,11 +8545,11 @@
       </c>
       <c r="G35" s="76">
         <f>IFERROR(VLOOKUP(I35,表1[],5,0),"")</f>
-        <v>0.14030000000000001</v>
+        <v>0.67230000000000001</v>
       </c>
       <c r="H35" s="77">
         <f t="shared" si="1"/>
-        <v>1403</v>
+        <v>12101.4</v>
       </c>
       <c r="I35" s="40" t="s">
         <v>115</v>
@@ -8544,18 +8557,18 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7165-0667D</v>
+        <v>7165-0813D</v>
       </c>
       <c r="D36" s="74">
         <f>IFERROR(E36/VLOOKUP(I36,表1[],3,0),0)</f>
-        <v>6</v>
-      </c>
-      <c r="E36" s="75">
-        <v>18000</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="199">
+        <v>4000</v>
       </c>
       <c r="F36" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8563,30 +8576,30 @@
       </c>
       <c r="G36" s="76">
         <f>IFERROR(VLOOKUP(I36,表1[],5,0),"")</f>
-        <v>0.67230000000000001</v>
+        <v>0.83760000000000001</v>
       </c>
       <c r="H36" s="77">
         <f t="shared" si="1"/>
-        <v>12101.4</v>
+        <v>3350.4</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>7165-0813D</v>
+        <v>7165-1213D</v>
       </c>
       <c r="D37" s="74">
         <f>IFERROR(E37/VLOOKUP(I37,表1[],3,0),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="199">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="F37" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8594,11 +8607,11 @@
       </c>
       <c r="G37" s="76">
         <f>IFERROR(VLOOKUP(I37,表1[],5,0),"")</f>
-        <v>0.83760000000000001</v>
+        <v>0.51290000000000002</v>
       </c>
       <c r="H37" s="77">
         <f t="shared" si="1"/>
-        <v>3350.4</v>
+        <v>5129</v>
       </c>
       <c r="I37" s="40" t="s">
         <v>118</v>
@@ -8609,15 +8622,15 @@
         <v>141</v>
       </c>
       <c r="C38" s="73" t="str">
-        <f t="shared" si="2"/>
-        <v>7165-1213D</v>
+        <f t="shared" ref="C38:C39" si="3">I38&amp;"D"</f>
+        <v>7135-0078D</v>
       </c>
       <c r="D38" s="74">
         <f>IFERROR(E38/VLOOKUP(I38,表1[],3,0),0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="199">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F38" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8625,14 +8638,14 @@
       </c>
       <c r="G38" s="76">
         <f>IFERROR(VLOOKUP(I38,表1[],5,0),"")</f>
-        <v>0.51290000000000002</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="H38" s="77">
         <f t="shared" si="1"/>
-        <v>5129</v>
+        <v>6408</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
@@ -8640,15 +8653,15 @@
         <v>142</v>
       </c>
       <c r="C39" s="73" t="str">
-        <f t="shared" ref="C39:C40" si="3">I39&amp;"D"</f>
+        <f t="shared" si="3"/>
         <v>7135-0078D</v>
       </c>
       <c r="D39" s="74">
         <f>IFERROR(E39/VLOOKUP(I39,表1[],3,0),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="199">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F39" s="207" t="str">
         <f t="shared" si="0"/>
@@ -8660,42 +8673,33 @@
       </c>
       <c r="H39" s="77">
         <f t="shared" si="1"/>
-        <v>6408</v>
+        <v>8010</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="73" t="str">
-        <f t="shared" si="3"/>
-        <v>7135-0078D</v>
-      </c>
+      <c r="A40" s="116"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="74">
         <f>IFERROR(E40/VLOOKUP(I40,表1[],3,0),0)</f>
-        <v>5</v>
-      </c>
-      <c r="E40" s="199">
-        <v>50000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E40" s="199"/>
       <c r="F40" s="207" t="str">
         <f t="shared" si="0"/>
-        <v>PCS</v>
-      </c>
-      <c r="G40" s="76">
+        <v/>
+      </c>
+      <c r="G40" s="76" t="str">
         <f>IFERROR(VLOOKUP(I40,表1[],5,0),"")</f>
-        <v>0.16020000000000001</v>
+        <v/>
       </c>
       <c r="H40" s="77">
         <f t="shared" si="1"/>
-        <v>8010</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="116"/>
@@ -8720,7 +8724,6 @@
       <c r="I41" s="40"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
-      <c r="A42" s="116"/>
       <c r="C42" s="73"/>
       <c r="D42" s="74">
         <f>IFERROR(E42/VLOOKUP(I42,表1[],3,0),0)</f>
@@ -8740,6 +8743,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="40"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="C43" s="73"/>
@@ -8769,7 +8773,7 @@
         <f>IFERROR(E44/VLOOKUP(I44,表1[],3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="199"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="207" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8783,7 +8787,6 @@
         <v>0</v>
       </c>
       <c r="I44" s="40"/>
-      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="C45" s="73"/>
@@ -8812,7 +8815,7 @@
         <f>IFERROR(E46/VLOOKUP(I46,表1[],3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="75"/>
+      <c r="E46" s="199"/>
       <c r="F46" s="207" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8875,7 +8878,7 @@
         <f>IFERROR(E49/VLOOKUP(I49,表1[],3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="199"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="207" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8890,13 +8893,15 @@
       </c>
       <c r="I49" s="40"/>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1">
+    <row r="50" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="73"/>
       <c r="D50" s="74">
         <f>IFERROR(E50/VLOOKUP(I50,表1[],3,0),0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="80"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="207" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8911,60 +8916,50 @@
       </c>
       <c r="I50" s="40"/>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="74">
-        <f>IFERROR(E51/VLOOKUP(I51,表1[],3,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="207" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G51" s="76" t="str">
-        <f>IFERROR(VLOOKUP(I51,表1[],5,0),"")</f>
-        <v/>
-      </c>
-      <c r="H51" s="77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="40"/>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A52" s="242"/>
-      <c r="B52" s="242"/>
-      <c r="C52" s="243" t="s">
+    <row r="51" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="A51" s="242"/>
+      <c r="B51" s="242"/>
+      <c r="C51" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="244"/>
-      <c r="E52" s="245">
-        <f>SUM(E18:E51)</f>
+      <c r="D51" s="244"/>
+      <c r="E51" s="245">
+        <f>SUM(E17:E50)</f>
         <v>537000</v>
       </c>
-      <c r="F52" s="246" t="s">
+      <c r="F51" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="315">
-        <f>SUM(H18:H51)</f>
+      <c r="G51" s="315">
+        <f>SUM(H17:H50)</f>
         <v>102656.79999999999</v>
       </c>
-      <c r="H52" s="315"/>
+      <c r="H51" s="315"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="253">
+        <f>SUM(D17:D50)</f>
+        <v>65</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="25"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="253">
-        <f>SUM(D18:D51)</f>
-        <v>65</v>
-      </c>
-      <c r="D53" s="33"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="25"/>
-      <c r="H53" s="20"/>
+      <c r="F53" s="208"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1">
@@ -8975,76 +8970,78 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="25"/>
-      <c r="F54" s="208"/>
+      <c r="F54" s="208" t="s">
+        <v>61</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="13"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="25"/>
-      <c r="F55" s="208" t="s">
+      <c r="F55" s="184" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="52"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1">
-      <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="184" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="52"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="5" t="s">
+      <c r="E56" s="48" t="s">
         <v>63</v>
       </c>
+      <c r="F56" s="209"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1">
+      <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="209"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="51" t="s">
-        <v>65</v>
-      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="49"/>
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="210"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="49"/>
+      <c r="A58" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="189"/>
+      <c r="F58" s="210" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="190"/>
+      <c r="H58" s="190"/>
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="189"/>
       <c r="F59" s="210" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G59" s="190"/>
       <c r="H59" s="190"/>
@@ -9052,32 +9049,28 @@
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="189"/>
       <c r="F60" s="210" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G60" s="190"/>
       <c r="H60" s="190"/>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
-      <c r="A61" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="189"/>
-      <c r="F61" s="210" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="190"/>
-      <c r="H61" s="190"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="208"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1">
@@ -9087,30 +9080,19 @@
       <c r="D62" s="5"/>
       <c r="E62" s="25"/>
       <c r="F62" s="208"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="208"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G51:H51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19:I50">
       <formula1>品番</formula1>
     </dataValidation>
   </dataValidations>
